--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29880" windowHeight="17240"/>
+    <workbookView windowWidth="25000" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>OH</t>
   </si>
   <si>
-    <t>0.7206575188</t>
+    <t>7.206575</t>
   </si>
   <si>
     <t>Alb</t>
@@ -86,13 +86,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>5.0e8</t>
+    <t>2.08e10</t>
   </si>
   <si>
     <t>OHAlbX3</t>
   </si>
   <si>
-    <t>1.191896</t>
+    <t>11.91896</t>
   </si>
   <si>
     <t>1</t>
@@ -1296,8 +1296,8 @@
   <sheetPr/>
   <dimension ref="A1:K775"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A766" workbookViewId="0">
-      <selection activeCell="A694" sqref="$A694:$XFD695"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F698" sqref="F698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1786,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0.35</v>
@@ -1876,7 +1876,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>1.13</v>
@@ -1902,7 +1902,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
         <v>1.13</v>
@@ -1928,7 +1928,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>1.13</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <v>0.35</v>
@@ -1980,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <v>0.35</v>
@@ -2006,7 +2006,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>0.35</v>
@@ -2038,7 +2038,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
         <v>0.51</v>
@@ -2070,7 +2070,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>0.51</v>
@@ -2102,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
         <v>0.51</v>
@@ -2206,7 +2206,7 @@
         <v>19</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>0.64</v>
@@ -2232,7 +2232,7 @@
         <v>19</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
         <v>0.64</v>
@@ -2258,7 +2258,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
         <v>0.64</v>
@@ -2284,7 +2284,7 @@
         <v>19</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
         <v>0.64</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
         <v>0.61</v>
@@ -2336,7 +2336,7 @@
         <v>19</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
         <v>0.61</v>
@@ -2362,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
         <v>0.61</v>
@@ -2388,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
         <v>0.61</v>
@@ -2420,7 +2420,7 @@
         <v>19</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
         <v>0.8</v>
@@ -2452,7 +2452,7 @@
         <v>19</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
         <v>0.8</v>
@@ -2484,7 +2484,7 @@
         <v>19</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
         <v>0.8</v>
@@ -2516,7 +2516,7 @@
         <v>19</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
         <v>0.8</v>
@@ -2542,7 +2542,7 @@
         <v>19</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
         <v>0.26</v>
@@ -2568,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
         <v>0.26</v>
@@ -2594,7 +2594,7 @@
         <v>19</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
         <v>0.26</v>
@@ -2620,7 +2620,7 @@
         <v>19</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
         <v>0.26</v>
@@ -2646,7 +2646,7 @@
         <v>19</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2">
         <v>0.26</v>
@@ -2672,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
         <v>0.63</v>
@@ -2698,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
         <v>0.63</v>
@@ -2724,7 +2724,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
         <v>0.63</v>
@@ -2750,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
         <v>0.63</v>
@@ -2776,7 +2776,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
         <v>0.63</v>
@@ -2808,7 +2808,7 @@
         <v>19</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
         <v>1.27</v>
@@ -2840,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
         <v>1.27</v>
@@ -2872,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2">
         <v>1.27</v>
@@ -2904,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
         <v>1.27</v>
@@ -2994,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2">
         <v>1.52</v>
@@ -3020,7 +3020,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="2">
         <v>1.52</v>
@@ -3046,7 +3046,7 @@
         <v>19</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="2">
         <v>1.52</v>
@@ -3072,7 +3072,7 @@
         <v>19</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
         <v>0.35</v>
@@ -3098,7 +3098,7 @@
         <v>19</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
         <v>0.35</v>
@@ -3124,7 +3124,7 @@
         <v>19</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
         <v>0.35</v>
@@ -3156,7 +3156,7 @@
         <v>19</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2">
         <v>0.51</v>
@@ -3188,7 +3188,7 @@
         <v>19</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2">
         <v>0.51</v>
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2">
         <v>0.51</v>
@@ -3324,7 +3324,7 @@
         <v>19</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
         <v>0.64</v>
@@ -3350,7 +3350,7 @@
         <v>19</v>
       </c>
       <c r="G71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="2">
         <v>0.64</v>
@@ -3376,7 +3376,7 @@
         <v>19</v>
       </c>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="2">
         <v>0.64</v>
@@ -3402,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2">
         <v>0.61</v>
@@ -3428,7 +3428,7 @@
         <v>19</v>
       </c>
       <c r="G74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="2">
         <v>0.61</v>
@@ -3454,7 +3454,7 @@
         <v>19</v>
       </c>
       <c r="G75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="2">
         <v>0.61</v>
@@ -3480,7 +3480,7 @@
         <v>19</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2">
         <v>0.61</v>
@@ -3506,7 +3506,7 @@
         <v>19</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2">
         <v>0.61</v>
@@ -3538,7 +3538,7 @@
         <v>19</v>
       </c>
       <c r="G78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="2">
         <v>0.8</v>
@@ -3570,7 +3570,7 @@
         <v>19</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2">
         <v>0.8</v>
@@ -3602,7 +3602,7 @@
         <v>19</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
         <v>0.8</v>
@@ -3634,7 +3634,7 @@
         <v>19</v>
       </c>
       <c r="G81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="2">
         <v>0.8</v>
@@ -3660,7 +3660,7 @@
         <v>19</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="2">
         <v>0.26</v>
@@ -3686,7 +3686,7 @@
         <v>19</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="2">
         <v>0.26</v>
@@ -3712,7 +3712,7 @@
         <v>19</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="2">
         <v>0.26</v>
@@ -3738,7 +3738,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="2">
         <v>0.26</v>
@@ -3764,7 +3764,7 @@
         <v>19</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="2">
         <v>0.26</v>
@@ -3790,7 +3790,7 @@
         <v>19</v>
       </c>
       <c r="G87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="2">
         <v>0.63</v>
@@ -3816,7 +3816,7 @@
         <v>19</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="2">
         <v>0.63</v>
@@ -3842,7 +3842,7 @@
         <v>19</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="2">
         <v>0.63</v>
@@ -3868,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="G90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="2">
         <v>0.63</v>
@@ -3894,7 +3894,7 @@
         <v>19</v>
       </c>
       <c r="G91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="2">
         <v>0.63</v>
@@ -3926,7 +3926,7 @@
         <v>19</v>
       </c>
       <c r="G92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="2">
         <v>1.27</v>
@@ -3958,7 +3958,7 @@
         <v>19</v>
       </c>
       <c r="G93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="2">
         <v>1.27</v>
@@ -3990,7 +3990,7 @@
         <v>19</v>
       </c>
       <c r="G94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="2">
         <v>1.27</v>
@@ -4022,7 +4022,7 @@
         <v>19</v>
       </c>
       <c r="G95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="2">
         <v>1.27</v>
@@ -4054,7 +4054,7 @@
         <v>19</v>
       </c>
       <c r="G96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>19</v>
       </c>
       <c r="G97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="2">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>19</v>
       </c>
       <c r="G98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
@@ -4150,7 +4150,7 @@
         <v>19</v>
       </c>
       <c r="G99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="2">
         <v>0.36</v>
@@ -4182,7 +4182,7 @@
         <v>19</v>
       </c>
       <c r="G100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" s="2">
         <v>0.36</v>
@@ -4214,7 +4214,7 @@
         <v>19</v>
       </c>
       <c r="G101" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="2">
         <v>0.36</v>
@@ -4246,7 +4246,7 @@
         <v>19</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="2">
         <v>0.36</v>
@@ -4278,7 +4278,7 @@
         <v>19</v>
       </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="2">
         <v>0.36</v>
@@ -4310,7 +4310,7 @@
         <v>19</v>
       </c>
       <c r="G104" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="2">
         <v>0.36</v>
@@ -4342,7 +4342,7 @@
         <v>19</v>
       </c>
       <c r="G105" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="2">
         <v>0.36</v>
@@ -4374,7 +4374,7 @@
         <v>19</v>
       </c>
       <c r="G106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="2">
         <v>0.36</v>
@@ -4406,7 +4406,7 @@
         <v>19</v>
       </c>
       <c r="G107" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="2">
         <v>0.7</v>
@@ -4438,7 +4438,7 @@
         <v>19</v>
       </c>
       <c r="G108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="2">
         <v>0.7</v>
@@ -4470,7 +4470,7 @@
         <v>19</v>
       </c>
       <c r="G109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="2">
         <v>0.7</v>
@@ -4502,7 +4502,7 @@
         <v>19</v>
       </c>
       <c r="G110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" s="2">
         <v>0.7</v>
@@ -4534,7 +4534,7 @@
         <v>19</v>
       </c>
       <c r="G111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="2">
         <v>0.7</v>
@@ -4566,7 +4566,7 @@
         <v>19</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="2">
         <v>0.7</v>
@@ -4598,7 +4598,7 @@
         <v>19</v>
       </c>
       <c r="G113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" s="2">
         <v>0.7</v>
@@ -4630,7 +4630,7 @@
         <v>19</v>
       </c>
       <c r="G114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" s="2">
         <v>0.7</v>
@@ -4662,7 +4662,7 @@
         <v>19</v>
       </c>
       <c r="G115" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="2">
         <v>1.27</v>
@@ -4694,7 +4694,7 @@
         <v>19</v>
       </c>
       <c r="G116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="2">
         <v>1.27</v>
@@ -4726,7 +4726,7 @@
         <v>19</v>
       </c>
       <c r="G117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="2">
         <v>1.27</v>
@@ -4758,7 +4758,7 @@
         <v>19</v>
       </c>
       <c r="G118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="2">
         <v>1.27</v>
@@ -4790,7 +4790,7 @@
         <v>19</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="2">
         <v>1.27</v>
@@ -4822,7 +4822,7 @@
         <v>19</v>
       </c>
       <c r="G120" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="2">
         <v>1.27</v>
@@ -4854,7 +4854,7 @@
         <v>19</v>
       </c>
       <c r="G121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="2">
         <v>1.27</v>
@@ -4886,7 +4886,7 @@
         <v>19</v>
       </c>
       <c r="G122" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="2">
         <v>1.27</v>
@@ -4918,7 +4918,7 @@
         <v>19</v>
       </c>
       <c r="G123" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="2">
         <v>0.1</v>
@@ -4950,7 +4950,7 @@
         <v>19</v>
       </c>
       <c r="G124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="2">
         <v>0.1</v>
@@ -4982,7 +4982,7 @@
         <v>19</v>
       </c>
       <c r="G125" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" s="2">
         <v>0.1</v>
@@ -5014,7 +5014,7 @@
         <v>19</v>
       </c>
       <c r="G126" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="2">
         <v>0.1</v>
@@ -5046,7 +5046,7 @@
         <v>19</v>
       </c>
       <c r="G127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="2">
         <v>0.1</v>
@@ -5078,7 +5078,7 @@
         <v>19</v>
       </c>
       <c r="G128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="2">
         <v>0.1</v>
@@ -5110,7 +5110,7 @@
         <v>19</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="2">
         <v>0.1</v>
@@ -5142,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="G130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" s="2">
         <v>0.1</v>
@@ -5174,7 +5174,7 @@
         <v>19</v>
       </c>
       <c r="G131" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="2">
         <v>0.6</v>
@@ -5206,7 +5206,7 @@
         <v>19</v>
       </c>
       <c r="G132" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" s="2">
         <v>0.6</v>
@@ -5238,7 +5238,7 @@
         <v>19</v>
       </c>
       <c r="G133" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="2">
         <v>0.6</v>
@@ -5270,7 +5270,7 @@
         <v>19</v>
       </c>
       <c r="G134" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="2">
         <v>0.6</v>
@@ -5302,7 +5302,7 @@
         <v>19</v>
       </c>
       <c r="G135" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="2">
         <v>0.6</v>
@@ -5334,7 +5334,7 @@
         <v>19</v>
       </c>
       <c r="G136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="2">
         <v>0.6</v>
@@ -5366,7 +5366,7 @@
         <v>19</v>
       </c>
       <c r="G137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="2">
         <v>0.6</v>
@@ -5398,7 +5398,7 @@
         <v>19</v>
       </c>
       <c r="G138" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="2">
         <v>0.6</v>
@@ -5430,7 +5430,7 @@
         <v>19</v>
       </c>
       <c r="G139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" s="2">
         <v>0.35</v>
@@ -5561,7 +5561,7 @@
         <v>19</v>
       </c>
       <c r="G143" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" s="2">
         <v>0.35</v>
@@ -5654,7 +5654,7 @@
         <v>19</v>
       </c>
       <c r="G146" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" s="2">
         <v>1.13</v>
@@ -5681,7 +5681,7 @@
         <v>19</v>
       </c>
       <c r="G147" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" s="2">
         <v>1.13</v>
@@ -5708,7 +5708,7 @@
         <v>19</v>
       </c>
       <c r="G148" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" s="2">
         <v>1.13</v>
@@ -5735,7 +5735,7 @@
         <v>19</v>
       </c>
       <c r="G149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" s="2">
         <v>0.35</v>
@@ -5762,7 +5762,7 @@
         <v>19</v>
       </c>
       <c r="G150" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" s="2">
         <v>0.35</v>
@@ -5789,7 +5789,7 @@
         <v>19</v>
       </c>
       <c r="G151" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="2">
         <v>0.35</v>
@@ -5822,7 +5822,7 @@
         <v>19</v>
       </c>
       <c r="G152" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" s="2">
         <v>0.51</v>
@@ -5855,7 +5855,7 @@
         <v>19</v>
       </c>
       <c r="G153" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" s="2">
         <v>0.51</v>
@@ -5888,7 +5888,7 @@
         <v>19</v>
       </c>
       <c r="G154" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" s="2">
         <v>0.51</v>
@@ -5996,7 +5996,7 @@
         <v>19</v>
       </c>
       <c r="G158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" s="2">
         <v>0.64</v>
@@ -6023,7 +6023,7 @@
         <v>19</v>
       </c>
       <c r="G159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" s="2">
         <v>0.64</v>
@@ -6050,7 +6050,7 @@
         <v>19</v>
       </c>
       <c r="G160" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="2">
         <v>0.64</v>
@@ -6077,7 +6077,7 @@
         <v>19</v>
       </c>
       <c r="G161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" s="2">
         <v>0.64</v>
@@ -6104,7 +6104,7 @@
         <v>19</v>
       </c>
       <c r="G162" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" s="2">
         <v>0.61</v>
@@ -6131,7 +6131,7 @@
         <v>19</v>
       </c>
       <c r="G163" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" s="2">
         <v>0.61</v>
@@ -6158,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="G164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="2">
         <v>0.61</v>
@@ -6185,7 +6185,7 @@
         <v>19</v>
       </c>
       <c r="G165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" s="2">
         <v>0.61</v>
@@ -6218,7 +6218,7 @@
         <v>19</v>
       </c>
       <c r="G166" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" s="2">
         <v>0.8</v>
@@ -6251,7 +6251,7 @@
         <v>19</v>
       </c>
       <c r="G167" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="2">
         <v>0.8</v>
@@ -6284,7 +6284,7 @@
         <v>19</v>
       </c>
       <c r="G168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="2">
         <v>0.8</v>
@@ -6317,7 +6317,7 @@
         <v>19</v>
       </c>
       <c r="G169" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" s="2">
         <v>0.8</v>
@@ -6344,7 +6344,7 @@
         <v>19</v>
       </c>
       <c r="G170" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" s="2">
         <v>0.26</v>
@@ -6371,7 +6371,7 @@
         <v>19</v>
       </c>
       <c r="G171" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" s="2">
         <v>0.26</v>
@@ -6398,7 +6398,7 @@
         <v>19</v>
       </c>
       <c r="G172" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="2">
         <v>0.26</v>
@@ -6425,7 +6425,7 @@
         <v>19</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="2">
         <v>0.26</v>
@@ -6452,7 +6452,7 @@
         <v>19</v>
       </c>
       <c r="G174" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="2">
         <v>0.26</v>
@@ -6479,7 +6479,7 @@
         <v>19</v>
       </c>
       <c r="G175" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="2">
         <v>0.63</v>
@@ -6506,7 +6506,7 @@
         <v>19</v>
       </c>
       <c r="G176" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="2">
         <v>0.63</v>
@@ -6533,7 +6533,7 @@
         <v>19</v>
       </c>
       <c r="G177" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" s="2">
         <v>0.63</v>
@@ -6560,7 +6560,7 @@
         <v>19</v>
       </c>
       <c r="G178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" s="2">
         <v>0.63</v>
@@ -6587,7 +6587,7 @@
         <v>19</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" s="2">
         <v>0.63</v>
@@ -6620,7 +6620,7 @@
         <v>19</v>
       </c>
       <c r="G180" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="2">
         <v>1.27</v>
@@ -6653,7 +6653,7 @@
         <v>19</v>
       </c>
       <c r="G181" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" s="2">
         <v>1.27</v>
@@ -6686,7 +6686,7 @@
         <v>19</v>
       </c>
       <c r="G182" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="2">
         <v>1.27</v>
@@ -6719,7 +6719,7 @@
         <v>19</v>
       </c>
       <c r="G183" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="2">
         <v>1.27</v>
@@ -6812,7 +6812,7 @@
         <v>19</v>
       </c>
       <c r="G186" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" s="2">
         <v>1.52</v>
@@ -6839,7 +6839,7 @@
         <v>19</v>
       </c>
       <c r="G187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" s="2">
         <v>1.52</v>
@@ -6866,7 +6866,7 @@
         <v>19</v>
       </c>
       <c r="G188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" s="2">
         <v>1.52</v>
@@ -6893,7 +6893,7 @@
         <v>19</v>
       </c>
       <c r="G189" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" s="2">
         <v>0.35</v>
@@ -6920,7 +6920,7 @@
         <v>19</v>
       </c>
       <c r="G190" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" s="2">
         <v>0.35</v>
@@ -6947,7 +6947,7 @@
         <v>19</v>
       </c>
       <c r="G191" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" s="2">
         <v>0.35</v>
@@ -6980,7 +6980,7 @@
         <v>19</v>
       </c>
       <c r="G192" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" s="2">
         <v>0.51</v>
@@ -7013,7 +7013,7 @@
         <v>19</v>
       </c>
       <c r="G193" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" s="2">
         <v>0.51</v>
@@ -7046,7 +7046,7 @@
         <v>19</v>
       </c>
       <c r="G194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" s="2">
         <v>0.51</v>
@@ -7154,7 +7154,7 @@
         <v>19</v>
       </c>
       <c r="G198" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" s="2">
         <v>0.64</v>
@@ -7181,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="G199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" s="2">
         <v>0.64</v>
@@ -7208,7 +7208,7 @@
         <v>19</v>
       </c>
       <c r="G200" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" s="2">
         <v>0.64</v>
@@ -7235,7 +7235,7 @@
         <v>19</v>
       </c>
       <c r="G201" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" s="2">
         <v>0.61</v>
@@ -7262,7 +7262,7 @@
         <v>19</v>
       </c>
       <c r="G202" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" s="2">
         <v>0.61</v>
@@ -7289,7 +7289,7 @@
         <v>19</v>
       </c>
       <c r="G203" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" s="2">
         <v>0.61</v>
@@ -7316,7 +7316,7 @@
         <v>19</v>
       </c>
       <c r="G204" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" s="2">
         <v>0.61</v>
@@ -7343,7 +7343,7 @@
         <v>19</v>
       </c>
       <c r="G205" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" s="2">
         <v>0.61</v>
@@ -7376,7 +7376,7 @@
         <v>19</v>
       </c>
       <c r="G206" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" s="2">
         <v>0.8</v>
@@ -7409,7 +7409,7 @@
         <v>19</v>
       </c>
       <c r="G207" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" s="2">
         <v>0.8</v>
@@ -7442,7 +7442,7 @@
         <v>19</v>
       </c>
       <c r="G208" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" s="2">
         <v>0.8</v>
@@ -7475,7 +7475,7 @@
         <v>19</v>
       </c>
       <c r="G209" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" s="2">
         <v>0.8</v>
@@ -7502,7 +7502,7 @@
         <v>19</v>
       </c>
       <c r="G210" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" s="2">
         <v>0.26</v>
@@ -7529,7 +7529,7 @@
         <v>19</v>
       </c>
       <c r="G211" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" s="2">
         <v>0.26</v>
@@ -7556,7 +7556,7 @@
         <v>19</v>
       </c>
       <c r="G212" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" s="2">
         <v>0.26</v>
@@ -7583,7 +7583,7 @@
         <v>19</v>
       </c>
       <c r="G213" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" s="2">
         <v>0.26</v>
@@ -7610,7 +7610,7 @@
         <v>19</v>
       </c>
       <c r="G214" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" s="2">
         <v>0.26</v>
@@ -7637,7 +7637,7 @@
         <v>19</v>
       </c>
       <c r="G215" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" s="2">
         <v>0.63</v>
@@ -7664,7 +7664,7 @@
         <v>19</v>
       </c>
       <c r="G216" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" s="2">
         <v>0.63</v>
@@ -7691,7 +7691,7 @@
         <v>19</v>
       </c>
       <c r="G217" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" s="2">
         <v>0.63</v>
@@ -7718,7 +7718,7 @@
         <v>19</v>
       </c>
       <c r="G218" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" s="2">
         <v>0.63</v>
@@ -7745,7 +7745,7 @@
         <v>19</v>
       </c>
       <c r="G219" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" s="2">
         <v>0.63</v>
@@ -7778,7 +7778,7 @@
         <v>19</v>
       </c>
       <c r="G220" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" s="2">
         <v>1.27</v>
@@ -7811,7 +7811,7 @@
         <v>19</v>
       </c>
       <c r="G221" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="2">
         <v>1.27</v>
@@ -7844,7 +7844,7 @@
         <v>19</v>
       </c>
       <c r="G222" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" s="2">
         <v>1.27</v>
@@ -7877,7 +7877,7 @@
         <v>19</v>
       </c>
       <c r="G223" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" s="2">
         <v>1.27</v>
@@ -7910,7 +7910,7 @@
         <v>19</v>
       </c>
       <c r="G224" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" s="2">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         <v>19</v>
       </c>
       <c r="G225" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" s="2">
         <v>1</v>
@@ -7976,7 +7976,7 @@
         <v>19</v>
       </c>
       <c r="G226" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" s="2">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>19</v>
       </c>
       <c r="G227" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" s="2">
         <v>0.36</v>
@@ -8042,7 +8042,7 @@
         <v>19</v>
       </c>
       <c r="G228" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" s="2">
         <v>0.36</v>
@@ -8075,7 +8075,7 @@
         <v>19</v>
       </c>
       <c r="G229" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229" s="2">
         <v>0.36</v>
@@ -8108,7 +8108,7 @@
         <v>19</v>
       </c>
       <c r="G230" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230" s="2">
         <v>0.36</v>
@@ -8141,7 +8141,7 @@
         <v>19</v>
       </c>
       <c r="G231" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" s="2">
         <v>0.36</v>
@@ -8174,7 +8174,7 @@
         <v>19</v>
       </c>
       <c r="G232" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232" s="2">
         <v>0.36</v>
@@ -8207,7 +8207,7 @@
         <v>19</v>
       </c>
       <c r="G233" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" s="2">
         <v>0.36</v>
@@ -8240,7 +8240,7 @@
         <v>19</v>
       </c>
       <c r="G234" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234" s="2">
         <v>0.36</v>
@@ -8273,7 +8273,7 @@
         <v>19</v>
       </c>
       <c r="G235" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235" s="2">
         <v>0.7</v>
@@ -8306,7 +8306,7 @@
         <v>19</v>
       </c>
       <c r="G236" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236" s="2">
         <v>0.7</v>
@@ -8339,7 +8339,7 @@
         <v>19</v>
       </c>
       <c r="G237" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" s="2">
         <v>0.7</v>
@@ -8372,7 +8372,7 @@
         <v>19</v>
       </c>
       <c r="G238" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" s="2">
         <v>0.7</v>
@@ -8405,7 +8405,7 @@
         <v>19</v>
       </c>
       <c r="G239" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239" s="2">
         <v>0.7</v>
@@ -8438,7 +8438,7 @@
         <v>19</v>
       </c>
       <c r="G240" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240" s="2">
         <v>0.7</v>
@@ -8471,7 +8471,7 @@
         <v>19</v>
       </c>
       <c r="G241" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" s="2">
         <v>0.7</v>
@@ -8504,7 +8504,7 @@
         <v>19</v>
       </c>
       <c r="G242" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242" s="2">
         <v>0.7</v>
@@ -8537,7 +8537,7 @@
         <v>19</v>
       </c>
       <c r="G243" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" s="2">
         <v>1.27</v>
@@ -8570,7 +8570,7 @@
         <v>19</v>
       </c>
       <c r="G244" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" s="2">
         <v>1.27</v>
@@ -8603,7 +8603,7 @@
         <v>19</v>
       </c>
       <c r="G245" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" s="2">
         <v>1.27</v>
@@ -8636,7 +8636,7 @@
         <v>19</v>
       </c>
       <c r="G246" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246" s="2">
         <v>1.27</v>
@@ -8669,7 +8669,7 @@
         <v>19</v>
       </c>
       <c r="G247" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" s="2">
         <v>1.27</v>
@@ -8702,7 +8702,7 @@
         <v>19</v>
       </c>
       <c r="G248" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" s="2">
         <v>1.27</v>
@@ -8735,7 +8735,7 @@
         <v>19</v>
       </c>
       <c r="G249" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" s="2">
         <v>1.27</v>
@@ -8768,7 +8768,7 @@
         <v>19</v>
       </c>
       <c r="G250" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" s="2">
         <v>1.27</v>
@@ -8801,7 +8801,7 @@
         <v>19</v>
       </c>
       <c r="G251" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251" s="2">
         <v>0.1</v>
@@ -8834,7 +8834,7 @@
         <v>19</v>
       </c>
       <c r="G252" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" s="2">
         <v>0.1</v>
@@ -8867,7 +8867,7 @@
         <v>19</v>
       </c>
       <c r="G253" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="2">
         <v>0.1</v>
@@ -8900,7 +8900,7 @@
         <v>19</v>
       </c>
       <c r="G254" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" s="2">
         <v>0.1</v>
@@ -8933,7 +8933,7 @@
         <v>19</v>
       </c>
       <c r="G255" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" s="2">
         <v>0.1</v>
@@ -8966,7 +8966,7 @@
         <v>19</v>
       </c>
       <c r="G256" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" s="2">
         <v>0.1</v>
@@ -8999,7 +8999,7 @@
         <v>19</v>
       </c>
       <c r="G257" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" s="2">
         <v>0.1</v>
@@ -9032,7 +9032,7 @@
         <v>19</v>
       </c>
       <c r="G258" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" s="2">
         <v>0.1</v>
@@ -9065,7 +9065,7 @@
         <v>19</v>
       </c>
       <c r="G259" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259" s="2">
         <v>0.6</v>
@@ -9098,7 +9098,7 @@
         <v>19</v>
       </c>
       <c r="G260" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" s="2">
         <v>0.6</v>
@@ -9131,7 +9131,7 @@
         <v>19</v>
       </c>
       <c r="G261" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261" s="2">
         <v>0.6</v>
@@ -9164,7 +9164,7 @@
         <v>19</v>
       </c>
       <c r="G262" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" s="2">
         <v>0.6</v>
@@ -9197,7 +9197,7 @@
         <v>19</v>
       </c>
       <c r="G263" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" s="2">
         <v>0.6</v>
@@ -9230,7 +9230,7 @@
         <v>19</v>
       </c>
       <c r="G264" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" s="2">
         <v>0.6</v>
@@ -9263,7 +9263,7 @@
         <v>19</v>
       </c>
       <c r="G265" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265" s="2">
         <v>0.6</v>
@@ -9296,7 +9296,7 @@
         <v>19</v>
       </c>
       <c r="G266" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266" s="2">
         <v>0.6</v>
@@ -9329,7 +9329,7 @@
         <v>19</v>
       </c>
       <c r="G267" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" s="2">
         <v>0.35</v>
@@ -9461,7 +9461,7 @@
         <v>19</v>
       </c>
       <c r="G271" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="2">
         <v>0.35</v>
@@ -9554,7 +9554,7 @@
         <v>19</v>
       </c>
       <c r="G274" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" s="2">
         <v>1.13</v>
@@ -9581,7 +9581,7 @@
         <v>19</v>
       </c>
       <c r="G275" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" s="2">
         <v>1.13</v>
@@ -9608,7 +9608,7 @@
         <v>19</v>
       </c>
       <c r="G276" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276" s="2">
         <v>1.13</v>
@@ -9635,7 +9635,7 @@
         <v>19</v>
       </c>
       <c r="G277" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" s="2">
         <v>0.35</v>
@@ -9662,7 +9662,7 @@
         <v>19</v>
       </c>
       <c r="G278" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" s="2">
         <v>0.35</v>
@@ -9689,7 +9689,7 @@
         <v>19</v>
       </c>
       <c r="G279" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" s="2">
         <v>0.35</v>
@@ -9722,7 +9722,7 @@
         <v>19</v>
       </c>
       <c r="G280" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" s="2">
         <v>0.51</v>
@@ -9755,7 +9755,7 @@
         <v>19</v>
       </c>
       <c r="G281" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" s="2">
         <v>0.51</v>
@@ -9788,7 +9788,7 @@
         <v>19</v>
       </c>
       <c r="G282" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282" s="2">
         <v>0.51</v>
@@ -9896,7 +9896,7 @@
         <v>19</v>
       </c>
       <c r="G286" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" s="2">
         <v>0.64</v>
@@ -9923,7 +9923,7 @@
         <v>19</v>
       </c>
       <c r="G287" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" s="2">
         <v>0.64</v>
@@ -9950,7 +9950,7 @@
         <v>19</v>
       </c>
       <c r="G288" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288" s="2">
         <v>0.64</v>
@@ -9977,7 +9977,7 @@
         <v>19</v>
       </c>
       <c r="G289" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" s="2">
         <v>0.64</v>
@@ -10004,7 +10004,7 @@
         <v>19</v>
       </c>
       <c r="G290" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" s="2">
         <v>0.61</v>
@@ -10031,7 +10031,7 @@
         <v>19</v>
       </c>
       <c r="G291" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" s="2">
         <v>0.61</v>
@@ -10058,7 +10058,7 @@
         <v>19</v>
       </c>
       <c r="G292" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" s="2">
         <v>0.61</v>
@@ -10085,7 +10085,7 @@
         <v>19</v>
       </c>
       <c r="G293" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" s="2">
         <v>0.61</v>
@@ -10118,7 +10118,7 @@
         <v>19</v>
       </c>
       <c r="G294" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" s="2">
         <v>0.8</v>
@@ -10151,7 +10151,7 @@
         <v>19</v>
       </c>
       <c r="G295" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H295" s="2">
         <v>0.8</v>
@@ -10184,7 +10184,7 @@
         <v>19</v>
       </c>
       <c r="G296" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H296" s="2">
         <v>0.8</v>
@@ -10217,7 +10217,7 @@
         <v>19</v>
       </c>
       <c r="G297" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" s="2">
         <v>0.8</v>
@@ -10244,7 +10244,7 @@
         <v>19</v>
       </c>
       <c r="G298" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" s="2">
         <v>0.26</v>
@@ -10271,7 +10271,7 @@
         <v>19</v>
       </c>
       <c r="G299" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299" s="2">
         <v>0.26</v>
@@ -10298,7 +10298,7 @@
         <v>19</v>
       </c>
       <c r="G300" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300" s="2">
         <v>0.26</v>
@@ -10325,7 +10325,7 @@
         <v>19</v>
       </c>
       <c r="G301" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" s="2">
         <v>0.26</v>
@@ -10352,7 +10352,7 @@
         <v>19</v>
       </c>
       <c r="G302" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" s="2">
         <v>0.26</v>
@@ -10379,7 +10379,7 @@
         <v>19</v>
       </c>
       <c r="G303" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303" s="2">
         <v>0.63</v>
@@ -10406,7 +10406,7 @@
         <v>19</v>
       </c>
       <c r="G304" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304" s="2">
         <v>0.63</v>
@@ -10433,7 +10433,7 @@
         <v>19</v>
       </c>
       <c r="G305" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305" s="2">
         <v>0.63</v>
@@ -10460,7 +10460,7 @@
         <v>19</v>
       </c>
       <c r="G306" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H306" s="2">
         <v>0.63</v>
@@ -10487,7 +10487,7 @@
         <v>19</v>
       </c>
       <c r="G307" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307" s="2">
         <v>0.63</v>
@@ -10520,7 +10520,7 @@
         <v>19</v>
       </c>
       <c r="G308" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" s="2">
         <v>1.27</v>
@@ -10553,7 +10553,7 @@
         <v>19</v>
       </c>
       <c r="G309" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H309" s="2">
         <v>1.27</v>
@@ -10586,7 +10586,7 @@
         <v>19</v>
       </c>
       <c r="G310" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H310" s="2">
         <v>1.27</v>
@@ -10619,7 +10619,7 @@
         <v>19</v>
       </c>
       <c r="G311" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311" s="2">
         <v>1.27</v>
@@ -10712,7 +10712,7 @@
         <v>19</v>
       </c>
       <c r="G314" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H314" s="2">
         <v>1.52</v>
@@ -10739,7 +10739,7 @@
         <v>19</v>
       </c>
       <c r="G315" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315" s="2">
         <v>1.52</v>
@@ -10766,7 +10766,7 @@
         <v>19</v>
       </c>
       <c r="G316" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H316" s="2">
         <v>1.52</v>
@@ -10793,7 +10793,7 @@
         <v>19</v>
       </c>
       <c r="G317" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H317" s="2">
         <v>0.35</v>
@@ -10820,7 +10820,7 @@
         <v>19</v>
       </c>
       <c r="G318" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318" s="2">
         <v>0.35</v>
@@ -10847,7 +10847,7 @@
         <v>19</v>
       </c>
       <c r="G319" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319" s="2">
         <v>0.35</v>
@@ -10880,7 +10880,7 @@
         <v>19</v>
       </c>
       <c r="G320" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320" s="2">
         <v>0.51</v>
@@ -10913,7 +10913,7 @@
         <v>19</v>
       </c>
       <c r="G321" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H321" s="2">
         <v>0.51</v>
@@ -10946,7 +10946,7 @@
         <v>19</v>
       </c>
       <c r="G322" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322" s="2">
         <v>0.51</v>
@@ -11054,7 +11054,7 @@
         <v>19</v>
       </c>
       <c r="G326" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H326" s="2">
         <v>0.64</v>
@@ -11081,7 +11081,7 @@
         <v>19</v>
       </c>
       <c r="G327" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H327" s="2">
         <v>0.64</v>
@@ -11108,7 +11108,7 @@
         <v>19</v>
       </c>
       <c r="G328" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328" s="2">
         <v>0.64</v>
@@ -11135,7 +11135,7 @@
         <v>19</v>
       </c>
       <c r="G329" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329" s="2">
         <v>0.61</v>
@@ -11162,7 +11162,7 @@
         <v>19</v>
       </c>
       <c r="G330" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330" s="2">
         <v>0.61</v>
@@ -11189,7 +11189,7 @@
         <v>19</v>
       </c>
       <c r="G331" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H331" s="2">
         <v>0.61</v>
@@ -11216,7 +11216,7 @@
         <v>19</v>
       </c>
       <c r="G332" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332" s="2">
         <v>0.61</v>
@@ -11243,7 +11243,7 @@
         <v>19</v>
       </c>
       <c r="G333" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333" s="2">
         <v>0.61</v>
@@ -11276,7 +11276,7 @@
         <v>19</v>
       </c>
       <c r="G334" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H334" s="2">
         <v>0.8</v>
@@ -11309,7 +11309,7 @@
         <v>19</v>
       </c>
       <c r="G335" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H335" s="2">
         <v>0.8</v>
@@ -11342,7 +11342,7 @@
         <v>19</v>
       </c>
       <c r="G336" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H336" s="2">
         <v>0.8</v>
@@ -11375,7 +11375,7 @@
         <v>19</v>
       </c>
       <c r="G337" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H337" s="2">
         <v>0.8</v>
@@ -11402,7 +11402,7 @@
         <v>19</v>
       </c>
       <c r="G338" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338" s="2">
         <v>0.26</v>
@@ -11429,7 +11429,7 @@
         <v>19</v>
       </c>
       <c r="G339" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H339" s="2">
         <v>0.26</v>
@@ -11456,7 +11456,7 @@
         <v>19</v>
       </c>
       <c r="G340" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" s="2">
         <v>0.26</v>
@@ -11483,7 +11483,7 @@
         <v>19</v>
       </c>
       <c r="G341" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H341" s="2">
         <v>0.26</v>
@@ -11510,7 +11510,7 @@
         <v>19</v>
       </c>
       <c r="G342" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342" s="2">
         <v>0.26</v>
@@ -11537,7 +11537,7 @@
         <v>19</v>
       </c>
       <c r="G343" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H343" s="2">
         <v>0.63</v>
@@ -11564,7 +11564,7 @@
         <v>19</v>
       </c>
       <c r="G344" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H344" s="2">
         <v>0.63</v>
@@ -11591,7 +11591,7 @@
         <v>19</v>
       </c>
       <c r="G345" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H345" s="2">
         <v>0.63</v>
@@ -11618,7 +11618,7 @@
         <v>19</v>
       </c>
       <c r="G346" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346" s="2">
         <v>0.63</v>
@@ -11645,7 +11645,7 @@
         <v>19</v>
       </c>
       <c r="G347" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347" s="2">
         <v>0.63</v>
@@ -11678,7 +11678,7 @@
         <v>19</v>
       </c>
       <c r="G348" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H348" s="2">
         <v>1.27</v>
@@ -11711,7 +11711,7 @@
         <v>19</v>
       </c>
       <c r="G349" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H349" s="2">
         <v>1.27</v>
@@ -11744,7 +11744,7 @@
         <v>19</v>
       </c>
       <c r="G350" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H350" s="2">
         <v>1.27</v>
@@ -11777,7 +11777,7 @@
         <v>19</v>
       </c>
       <c r="G351" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H351" s="2">
         <v>1.27</v>
@@ -11810,7 +11810,7 @@
         <v>19</v>
       </c>
       <c r="G352" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H352" s="2">
         <v>1</v>
@@ -11843,7 +11843,7 @@
         <v>19</v>
       </c>
       <c r="G353" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H353" s="2">
         <v>1</v>
@@ -11876,7 +11876,7 @@
         <v>19</v>
       </c>
       <c r="G354" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H354" s="2">
         <v>1</v>
@@ -11909,7 +11909,7 @@
         <v>19</v>
       </c>
       <c r="G355" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H355" s="2">
         <v>0.36</v>
@@ -11942,7 +11942,7 @@
         <v>19</v>
       </c>
       <c r="G356" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H356" s="2">
         <v>0.36</v>
@@ -11975,7 +11975,7 @@
         <v>19</v>
       </c>
       <c r="G357" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H357" s="2">
         <v>0.36</v>
@@ -12008,7 +12008,7 @@
         <v>19</v>
       </c>
       <c r="G358" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H358" s="2">
         <v>0.36</v>
@@ -12041,7 +12041,7 @@
         <v>19</v>
       </c>
       <c r="G359" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H359" s="2">
         <v>0.36</v>
@@ -12074,7 +12074,7 @@
         <v>19</v>
       </c>
       <c r="G360" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H360" s="2">
         <v>0.36</v>
@@ -12107,7 +12107,7 @@
         <v>19</v>
       </c>
       <c r="G361" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361" s="2">
         <v>0.36</v>
@@ -12140,7 +12140,7 @@
         <v>19</v>
       </c>
       <c r="G362" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H362" s="2">
         <v>0.36</v>
@@ -12173,7 +12173,7 @@
         <v>19</v>
       </c>
       <c r="G363" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H363" s="2">
         <v>0.7</v>
@@ -12206,7 +12206,7 @@
         <v>19</v>
       </c>
       <c r="G364" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364" s="2">
         <v>0.7</v>
@@ -12239,7 +12239,7 @@
         <v>19</v>
       </c>
       <c r="G365" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H365" s="2">
         <v>0.7</v>
@@ -12272,7 +12272,7 @@
         <v>19</v>
       </c>
       <c r="G366" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H366" s="2">
         <v>0.7</v>
@@ -12305,7 +12305,7 @@
         <v>19</v>
       </c>
       <c r="G367" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H367" s="2">
         <v>0.7</v>
@@ -12338,7 +12338,7 @@
         <v>19</v>
       </c>
       <c r="G368" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368" s="2">
         <v>0.7</v>
@@ -12371,7 +12371,7 @@
         <v>19</v>
       </c>
       <c r="G369" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H369" s="2">
         <v>0.7</v>
@@ -12404,7 +12404,7 @@
         <v>19</v>
       </c>
       <c r="G370" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H370" s="2">
         <v>0.7</v>
@@ -12437,7 +12437,7 @@
         <v>19</v>
       </c>
       <c r="G371" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H371" s="2">
         <v>1.27</v>
@@ -12470,7 +12470,7 @@
         <v>19</v>
       </c>
       <c r="G372" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H372" s="2">
         <v>1.27</v>
@@ -12503,7 +12503,7 @@
         <v>19</v>
       </c>
       <c r="G373" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H373" s="2">
         <v>1.27</v>
@@ -12536,7 +12536,7 @@
         <v>19</v>
       </c>
       <c r="G374" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H374" s="2">
         <v>1.27</v>
@@ -12569,7 +12569,7 @@
         <v>19</v>
       </c>
       <c r="G375" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375" s="2">
         <v>1.27</v>
@@ -12602,7 +12602,7 @@
         <v>19</v>
       </c>
       <c r="G376" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H376" s="2">
         <v>1.27</v>
@@ -12635,7 +12635,7 @@
         <v>19</v>
       </c>
       <c r="G377" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H377" s="2">
         <v>1.27</v>
@@ -12668,7 +12668,7 @@
         <v>19</v>
       </c>
       <c r="G378" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H378" s="2">
         <v>1.27</v>
@@ -12701,7 +12701,7 @@
         <v>19</v>
       </c>
       <c r="G379" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379" s="2">
         <v>0.1</v>
@@ -12734,7 +12734,7 @@
         <v>19</v>
       </c>
       <c r="G380" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H380" s="2">
         <v>0.1</v>
@@ -12767,7 +12767,7 @@
         <v>19</v>
       </c>
       <c r="G381" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H381" s="2">
         <v>0.1</v>
@@ -12800,7 +12800,7 @@
         <v>19</v>
       </c>
       <c r="G382" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H382" s="2">
         <v>0.1</v>
@@ -12833,7 +12833,7 @@
         <v>19</v>
       </c>
       <c r="G383" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H383" s="2">
         <v>0.1</v>
@@ -12866,7 +12866,7 @@
         <v>19</v>
       </c>
       <c r="G384" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H384" s="2">
         <v>0.1</v>
@@ -12899,7 +12899,7 @@
         <v>19</v>
       </c>
       <c r="G385" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H385" s="2">
         <v>0.1</v>
@@ -12932,7 +12932,7 @@
         <v>19</v>
       </c>
       <c r="G386" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H386" s="2">
         <v>0.1</v>
@@ -12965,7 +12965,7 @@
         <v>19</v>
       </c>
       <c r="G387" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H387" s="2">
         <v>0.6</v>
@@ -12998,7 +12998,7 @@
         <v>19</v>
       </c>
       <c r="G388" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H388" s="2">
         <v>0.6</v>
@@ -13031,7 +13031,7 @@
         <v>19</v>
       </c>
       <c r="G389" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389" s="2">
         <v>0.6</v>
@@ -13064,7 +13064,7 @@
         <v>19</v>
       </c>
       <c r="G390" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H390" s="2">
         <v>0.6</v>
@@ -13097,7 +13097,7 @@
         <v>19</v>
       </c>
       <c r="G391" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H391" s="2">
         <v>0.6</v>
@@ -13130,7 +13130,7 @@
         <v>19</v>
       </c>
       <c r="G392" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H392" s="2">
         <v>0.6</v>
@@ -13163,7 +13163,7 @@
         <v>19</v>
       </c>
       <c r="G393" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H393" s="2">
         <v>0.6</v>
@@ -13196,7 +13196,7 @@
         <v>19</v>
       </c>
       <c r="G394" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H394" s="2">
         <v>0.6</v>
@@ -13229,7 +13229,7 @@
         <v>19</v>
       </c>
       <c r="G395" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H395" s="2">
         <v>0.35</v>
@@ -13361,7 +13361,7 @@
         <v>19</v>
       </c>
       <c r="G399" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H399" s="2">
         <v>0.35</v>
@@ -13454,7 +13454,7 @@
         <v>19</v>
       </c>
       <c r="G402" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H402" s="2">
         <v>1.13</v>
@@ -13481,7 +13481,7 @@
         <v>19</v>
       </c>
       <c r="G403" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H403" s="2">
         <v>1.13</v>
@@ -13508,7 +13508,7 @@
         <v>19</v>
       </c>
       <c r="G404" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H404" s="2">
         <v>1.13</v>
@@ -13535,7 +13535,7 @@
         <v>19</v>
       </c>
       <c r="G405" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H405" s="2">
         <v>0.35</v>
@@ -13562,7 +13562,7 @@
         <v>19</v>
       </c>
       <c r="G406" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H406" s="2">
         <v>0.35</v>
@@ -13589,7 +13589,7 @@
         <v>19</v>
       </c>
       <c r="G407" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H407" s="2">
         <v>0.35</v>
@@ -13622,7 +13622,7 @@
         <v>19</v>
       </c>
       <c r="G408" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H408" s="2">
         <v>0.51</v>
@@ -13655,7 +13655,7 @@
         <v>19</v>
       </c>
       <c r="G409" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H409" s="2">
         <v>0.51</v>
@@ -13688,7 +13688,7 @@
         <v>19</v>
       </c>
       <c r="G410" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H410" s="2">
         <v>0.51</v>
@@ -13796,7 +13796,7 @@
         <v>19</v>
       </c>
       <c r="G414" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H414" s="2">
         <v>0.64</v>
@@ -13823,7 +13823,7 @@
         <v>19</v>
       </c>
       <c r="G415" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H415" s="2">
         <v>0.64</v>
@@ -13850,7 +13850,7 @@
         <v>19</v>
       </c>
       <c r="G416" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H416" s="2">
         <v>0.64</v>
@@ -13877,7 +13877,7 @@
         <v>19</v>
       </c>
       <c r="G417" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H417" s="2">
         <v>0.64</v>
@@ -13904,7 +13904,7 @@
         <v>19</v>
       </c>
       <c r="G418" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H418" s="2">
         <v>0.61</v>
@@ -13931,7 +13931,7 @@
         <v>19</v>
       </c>
       <c r="G419" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H419" s="2">
         <v>0.61</v>
@@ -13958,7 +13958,7 @@
         <v>19</v>
       </c>
       <c r="G420" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H420" s="2">
         <v>0.61</v>
@@ -13985,7 +13985,7 @@
         <v>19</v>
       </c>
       <c r="G421" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H421" s="2">
         <v>0.61</v>
@@ -14018,7 +14018,7 @@
         <v>19</v>
       </c>
       <c r="G422" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H422" s="2">
         <v>0.8</v>
@@ -14051,7 +14051,7 @@
         <v>19</v>
       </c>
       <c r="G423" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H423" s="2">
         <v>0.8</v>
@@ -14084,7 +14084,7 @@
         <v>19</v>
       </c>
       <c r="G424" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H424" s="2">
         <v>0.8</v>
@@ -14117,7 +14117,7 @@
         <v>19</v>
       </c>
       <c r="G425" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H425" s="2">
         <v>0.8</v>
@@ -14144,7 +14144,7 @@
         <v>19</v>
       </c>
       <c r="G426" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H426" s="2">
         <v>0.26</v>
@@ -14171,7 +14171,7 @@
         <v>19</v>
       </c>
       <c r="G427" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H427" s="2">
         <v>0.26</v>
@@ -14198,7 +14198,7 @@
         <v>19</v>
       </c>
       <c r="G428" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H428" s="2">
         <v>0.26</v>
@@ -14225,7 +14225,7 @@
         <v>19</v>
       </c>
       <c r="G429" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H429" s="2">
         <v>0.26</v>
@@ -14252,7 +14252,7 @@
         <v>19</v>
       </c>
       <c r="G430" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H430" s="2">
         <v>0.26</v>
@@ -14279,7 +14279,7 @@
         <v>19</v>
       </c>
       <c r="G431" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431" s="2">
         <v>0.63</v>
@@ -14306,7 +14306,7 @@
         <v>19</v>
       </c>
       <c r="G432" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H432" s="2">
         <v>0.63</v>
@@ -14333,7 +14333,7 @@
         <v>19</v>
       </c>
       <c r="G433" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H433" s="2">
         <v>0.63</v>
@@ -14360,7 +14360,7 @@
         <v>19</v>
       </c>
       <c r="G434" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H434" s="2">
         <v>0.63</v>
@@ -14387,7 +14387,7 @@
         <v>19</v>
       </c>
       <c r="G435" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H435" s="2">
         <v>0.63</v>
@@ -14420,7 +14420,7 @@
         <v>19</v>
       </c>
       <c r="G436" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H436" s="2">
         <v>1.27</v>
@@ -14453,7 +14453,7 @@
         <v>19</v>
       </c>
       <c r="G437" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H437" s="2">
         <v>1.27</v>
@@ -14486,7 +14486,7 @@
         <v>19</v>
       </c>
       <c r="G438" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H438" s="2">
         <v>1.27</v>
@@ -14519,7 +14519,7 @@
         <v>19</v>
       </c>
       <c r="G439" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H439" s="2">
         <v>1.27</v>
@@ -14612,7 +14612,7 @@
         <v>19</v>
       </c>
       <c r="G442" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H442" s="2">
         <v>1.52</v>
@@ -14639,7 +14639,7 @@
         <v>19</v>
       </c>
       <c r="G443" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H443" s="2">
         <v>1.52</v>
@@ -14666,7 +14666,7 @@
         <v>19</v>
       </c>
       <c r="G444" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H444" s="2">
         <v>1.52</v>
@@ -14693,7 +14693,7 @@
         <v>19</v>
       </c>
       <c r="G445" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H445" s="2">
         <v>0.35</v>
@@ -14720,7 +14720,7 @@
         <v>19</v>
       </c>
       <c r="G446" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H446" s="2">
         <v>0.35</v>
@@ -14747,7 +14747,7 @@
         <v>19</v>
       </c>
       <c r="G447" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H447" s="2">
         <v>0.35</v>
@@ -14780,7 +14780,7 @@
         <v>19</v>
       </c>
       <c r="G448" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H448" s="2">
         <v>0.51</v>
@@ -14813,7 +14813,7 @@
         <v>19</v>
       </c>
       <c r="G449" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H449" s="2">
         <v>0.51</v>
@@ -14846,7 +14846,7 @@
         <v>19</v>
       </c>
       <c r="G450" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H450" s="2">
         <v>0.51</v>
@@ -14954,7 +14954,7 @@
         <v>19</v>
       </c>
       <c r="G454" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H454" s="2">
         <v>0.64</v>
@@ -14981,7 +14981,7 @@
         <v>19</v>
       </c>
       <c r="G455" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H455" s="2">
         <v>0.64</v>
@@ -15008,7 +15008,7 @@
         <v>19</v>
       </c>
       <c r="G456" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H456" s="2">
         <v>0.64</v>
@@ -15035,7 +15035,7 @@
         <v>19</v>
       </c>
       <c r="G457" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H457" s="2">
         <v>0.61</v>
@@ -15062,7 +15062,7 @@
         <v>19</v>
       </c>
       <c r="G458" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H458" s="2">
         <v>0.61</v>
@@ -15089,7 +15089,7 @@
         <v>19</v>
       </c>
       <c r="G459" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H459" s="2">
         <v>0.61</v>
@@ -15116,7 +15116,7 @@
         <v>19</v>
       </c>
       <c r="G460" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H460" s="2">
         <v>0.61</v>
@@ -15143,7 +15143,7 @@
         <v>19</v>
       </c>
       <c r="G461" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H461" s="2">
         <v>0.61</v>
@@ -15176,7 +15176,7 @@
         <v>19</v>
       </c>
       <c r="G462" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H462" s="2">
         <v>0.8</v>
@@ -15209,7 +15209,7 @@
         <v>19</v>
       </c>
       <c r="G463" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H463" s="2">
         <v>0.8</v>
@@ -15242,7 +15242,7 @@
         <v>19</v>
       </c>
       <c r="G464" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H464" s="2">
         <v>0.8</v>
@@ -15275,7 +15275,7 @@
         <v>19</v>
       </c>
       <c r="G465" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H465" s="2">
         <v>0.8</v>
@@ -15302,7 +15302,7 @@
         <v>19</v>
       </c>
       <c r="G466" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H466" s="2">
         <v>0.26</v>
@@ -15329,7 +15329,7 @@
         <v>19</v>
       </c>
       <c r="G467" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H467" s="2">
         <v>0.26</v>
@@ -15356,7 +15356,7 @@
         <v>19</v>
       </c>
       <c r="G468" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H468" s="2">
         <v>0.26</v>
@@ -15383,7 +15383,7 @@
         <v>19</v>
       </c>
       <c r="G469" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H469" s="2">
         <v>0.26</v>
@@ -15410,7 +15410,7 @@
         <v>19</v>
       </c>
       <c r="G470" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H470" s="2">
         <v>0.26</v>
@@ -15437,7 +15437,7 @@
         <v>19</v>
       </c>
       <c r="G471" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H471" s="2">
         <v>0.63</v>
@@ -15464,7 +15464,7 @@
         <v>19</v>
       </c>
       <c r="G472" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H472" s="2">
         <v>0.63</v>
@@ -15491,7 +15491,7 @@
         <v>19</v>
       </c>
       <c r="G473" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H473" s="2">
         <v>0.63</v>
@@ -15518,7 +15518,7 @@
         <v>19</v>
       </c>
       <c r="G474" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H474" s="2">
         <v>0.63</v>
@@ -15545,7 +15545,7 @@
         <v>19</v>
       </c>
       <c r="G475" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H475" s="2">
         <v>0.63</v>
@@ -15578,7 +15578,7 @@
         <v>19</v>
       </c>
       <c r="G476" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H476" s="2">
         <v>1.27</v>
@@ -15611,7 +15611,7 @@
         <v>19</v>
       </c>
       <c r="G477" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H477" s="2">
         <v>1.27</v>
@@ -15644,7 +15644,7 @@
         <v>19</v>
       </c>
       <c r="G478" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H478" s="2">
         <v>1.27</v>
@@ -15677,7 +15677,7 @@
         <v>19</v>
       </c>
       <c r="G479" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H479" s="2">
         <v>1.27</v>
@@ -15710,7 +15710,7 @@
         <v>19</v>
       </c>
       <c r="G480" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H480" s="2">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>19</v>
       </c>
       <c r="G481" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H481" s="2">
         <v>1</v>
@@ -15776,7 +15776,7 @@
         <v>19</v>
       </c>
       <c r="G482" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H482" s="2">
         <v>1</v>
@@ -15809,7 +15809,7 @@
         <v>19</v>
       </c>
       <c r="G483" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H483" s="2">
         <v>0.36</v>
@@ -15842,7 +15842,7 @@
         <v>19</v>
       </c>
       <c r="G484" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H484" s="2">
         <v>0.36</v>
@@ -15875,7 +15875,7 @@
         <v>19</v>
       </c>
       <c r="G485" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H485" s="2">
         <v>0.36</v>
@@ -15908,7 +15908,7 @@
         <v>19</v>
       </c>
       <c r="G486" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H486" s="2">
         <v>0.36</v>
@@ -15941,7 +15941,7 @@
         <v>19</v>
       </c>
       <c r="G487" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H487" s="2">
         <v>0.36</v>
@@ -15974,7 +15974,7 @@
         <v>19</v>
       </c>
       <c r="G488" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H488" s="2">
         <v>0.36</v>
@@ -16007,7 +16007,7 @@
         <v>19</v>
       </c>
       <c r="G489" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H489" s="2">
         <v>0.36</v>
@@ -16040,7 +16040,7 @@
         <v>19</v>
       </c>
       <c r="G490" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H490" s="2">
         <v>0.36</v>
@@ -16073,7 +16073,7 @@
         <v>19</v>
       </c>
       <c r="G491" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H491" s="2">
         <v>0.7</v>
@@ -16106,7 +16106,7 @@
         <v>19</v>
       </c>
       <c r="G492" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H492" s="2">
         <v>0.7</v>
@@ -16139,7 +16139,7 @@
         <v>19</v>
       </c>
       <c r="G493" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H493" s="2">
         <v>0.7</v>
@@ -16172,7 +16172,7 @@
         <v>19</v>
       </c>
       <c r="G494" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H494" s="2">
         <v>0.7</v>
@@ -16205,7 +16205,7 @@
         <v>19</v>
       </c>
       <c r="G495" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H495" s="2">
         <v>0.7</v>
@@ -16238,7 +16238,7 @@
         <v>19</v>
       </c>
       <c r="G496" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H496" s="2">
         <v>0.7</v>
@@ -16271,7 +16271,7 @@
         <v>19</v>
       </c>
       <c r="G497" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H497" s="2">
         <v>0.7</v>
@@ -16304,7 +16304,7 @@
         <v>19</v>
       </c>
       <c r="G498" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H498" s="2">
         <v>0.7</v>
@@ -16337,7 +16337,7 @@
         <v>19</v>
       </c>
       <c r="G499" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H499" s="2">
         <v>1.27</v>
@@ -16370,7 +16370,7 @@
         <v>19</v>
       </c>
       <c r="G500" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H500" s="2">
         <v>1.27</v>
@@ -16403,7 +16403,7 @@
         <v>19</v>
       </c>
       <c r="G501" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H501" s="2">
         <v>1.27</v>
@@ -16436,7 +16436,7 @@
         <v>19</v>
       </c>
       <c r="G502" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H502" s="2">
         <v>1.27</v>
@@ -16469,7 +16469,7 @@
         <v>19</v>
       </c>
       <c r="G503" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H503" s="2">
         <v>1.27</v>
@@ -16502,7 +16502,7 @@
         <v>19</v>
       </c>
       <c r="G504" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H504" s="2">
         <v>1.27</v>
@@ -16535,7 +16535,7 @@
         <v>19</v>
       </c>
       <c r="G505" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H505" s="2">
         <v>1.27</v>
@@ -16568,7 +16568,7 @@
         <v>19</v>
       </c>
       <c r="G506" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H506" s="2">
         <v>1.27</v>
@@ -16601,7 +16601,7 @@
         <v>19</v>
       </c>
       <c r="G507" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H507" s="2">
         <v>0.1</v>
@@ -16634,7 +16634,7 @@
         <v>19</v>
       </c>
       <c r="G508" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H508" s="2">
         <v>0.1</v>
@@ -16667,7 +16667,7 @@
         <v>19</v>
       </c>
       <c r="G509" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H509" s="2">
         <v>0.1</v>
@@ -16700,7 +16700,7 @@
         <v>19</v>
       </c>
       <c r="G510" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H510" s="2">
         <v>0.1</v>
@@ -16733,7 +16733,7 @@
         <v>19</v>
       </c>
       <c r="G511" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H511" s="2">
         <v>0.1</v>
@@ -16766,7 +16766,7 @@
         <v>19</v>
       </c>
       <c r="G512" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H512" s="2">
         <v>0.1</v>
@@ -16799,7 +16799,7 @@
         <v>19</v>
       </c>
       <c r="G513" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H513" s="2">
         <v>0.1</v>
@@ -16832,7 +16832,7 @@
         <v>19</v>
       </c>
       <c r="G514" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H514" s="2">
         <v>0.1</v>
@@ -16865,7 +16865,7 @@
         <v>19</v>
       </c>
       <c r="G515" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H515" s="2">
         <v>0.6</v>
@@ -16898,7 +16898,7 @@
         <v>19</v>
       </c>
       <c r="G516" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H516" s="2">
         <v>0.6</v>
@@ -16931,7 +16931,7 @@
         <v>19</v>
       </c>
       <c r="G517" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H517" s="2">
         <v>0.6</v>
@@ -16964,7 +16964,7 @@
         <v>19</v>
       </c>
       <c r="G518" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H518" s="2">
         <v>0.6</v>
@@ -16997,7 +16997,7 @@
         <v>19</v>
       </c>
       <c r="G519" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H519" s="2">
         <v>0.6</v>
@@ -17030,7 +17030,7 @@
         <v>19</v>
       </c>
       <c r="G520" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H520" s="2">
         <v>0.6</v>
@@ -17063,7 +17063,7 @@
         <v>19</v>
       </c>
       <c r="G521" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H521" s="2">
         <v>0.6</v>
@@ -17096,7 +17096,7 @@
         <v>19</v>
       </c>
       <c r="G522" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H522" s="2">
         <v>0.6</v>
@@ -17129,7 +17129,7 @@
         <v>19</v>
       </c>
       <c r="G523" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H523" s="2">
         <v>0.35</v>
@@ -17261,7 +17261,7 @@
         <v>19</v>
       </c>
       <c r="G527" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H527" s="2">
         <v>0.35</v>
@@ -17354,7 +17354,7 @@
         <v>19</v>
       </c>
       <c r="G530" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H530" s="2">
         <v>1.13</v>
@@ -17381,7 +17381,7 @@
         <v>19</v>
       </c>
       <c r="G531" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H531" s="2">
         <v>1.13</v>
@@ -17408,7 +17408,7 @@
         <v>19</v>
       </c>
       <c r="G532" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H532" s="2">
         <v>1.13</v>
@@ -17435,7 +17435,7 @@
         <v>19</v>
       </c>
       <c r="G533" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H533" s="2">
         <v>0.35</v>
@@ -17462,7 +17462,7 @@
         <v>19</v>
       </c>
       <c r="G534" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H534" s="2">
         <v>0.35</v>
@@ -17489,7 +17489,7 @@
         <v>19</v>
       </c>
       <c r="G535" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H535" s="2">
         <v>0.35</v>
@@ -17522,7 +17522,7 @@
         <v>19</v>
       </c>
       <c r="G536" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H536" s="2">
         <v>0.51</v>
@@ -17555,7 +17555,7 @@
         <v>19</v>
       </c>
       <c r="G537" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H537" s="2">
         <v>0.51</v>
@@ -17588,7 +17588,7 @@
         <v>19</v>
       </c>
       <c r="G538" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H538" s="2">
         <v>0.51</v>
@@ -17696,7 +17696,7 @@
         <v>19</v>
       </c>
       <c r="G542" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H542" s="2">
         <v>0.64</v>
@@ -17723,7 +17723,7 @@
         <v>19</v>
       </c>
       <c r="G543" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H543" s="2">
         <v>0.64</v>
@@ -17750,7 +17750,7 @@
         <v>19</v>
       </c>
       <c r="G544" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H544" s="2">
         <v>0.64</v>
@@ -17777,7 +17777,7 @@
         <v>19</v>
       </c>
       <c r="G545" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H545" s="2">
         <v>0.64</v>
@@ -17804,7 +17804,7 @@
         <v>19</v>
       </c>
       <c r="G546" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H546" s="2">
         <v>0.61</v>
@@ -17831,7 +17831,7 @@
         <v>19</v>
       </c>
       <c r="G547" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H547" s="2">
         <v>0.61</v>
@@ -17858,7 +17858,7 @@
         <v>19</v>
       </c>
       <c r="G548" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H548" s="2">
         <v>0.61</v>
@@ -17885,7 +17885,7 @@
         <v>19</v>
       </c>
       <c r="G549" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H549" s="2">
         <v>0.61</v>
@@ -17918,7 +17918,7 @@
         <v>19</v>
       </c>
       <c r="G550" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H550" s="2">
         <v>0.8</v>
@@ -17951,7 +17951,7 @@
         <v>19</v>
       </c>
       <c r="G551" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H551" s="2">
         <v>0.8</v>
@@ -17984,7 +17984,7 @@
         <v>19</v>
       </c>
       <c r="G552" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H552" s="2">
         <v>0.8</v>
@@ -18017,7 +18017,7 @@
         <v>19</v>
       </c>
       <c r="G553" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H553" s="2">
         <v>0.8</v>
@@ -18044,7 +18044,7 @@
         <v>19</v>
       </c>
       <c r="G554" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H554" s="2">
         <v>0.26</v>
@@ -18071,7 +18071,7 @@
         <v>19</v>
       </c>
       <c r="G555" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H555" s="2">
         <v>0.26</v>
@@ -18098,7 +18098,7 @@
         <v>19</v>
       </c>
       <c r="G556" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H556" s="2">
         <v>0.26</v>
@@ -18125,7 +18125,7 @@
         <v>19</v>
       </c>
       <c r="G557" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H557" s="2">
         <v>0.26</v>
@@ -18152,7 +18152,7 @@
         <v>19</v>
       </c>
       <c r="G558" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H558" s="2">
         <v>0.26</v>
@@ -18179,7 +18179,7 @@
         <v>19</v>
       </c>
       <c r="G559" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H559" s="2">
         <v>0.63</v>
@@ -18206,7 +18206,7 @@
         <v>19</v>
       </c>
       <c r="G560" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H560" s="2">
         <v>0.63</v>
@@ -18233,7 +18233,7 @@
         <v>19</v>
       </c>
       <c r="G561" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H561" s="2">
         <v>0.63</v>
@@ -18260,7 +18260,7 @@
         <v>19</v>
       </c>
       <c r="G562" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H562" s="2">
         <v>0.63</v>
@@ -18287,7 +18287,7 @@
         <v>19</v>
       </c>
       <c r="G563" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H563" s="2">
         <v>0.63</v>
@@ -18320,7 +18320,7 @@
         <v>19</v>
       </c>
       <c r="G564" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H564" s="2">
         <v>1.27</v>
@@ -18353,7 +18353,7 @@
         <v>19</v>
       </c>
       <c r="G565" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H565" s="2">
         <v>1.27</v>
@@ -18386,7 +18386,7 @@
         <v>19</v>
       </c>
       <c r="G566" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H566" s="2">
         <v>1.27</v>
@@ -18419,7 +18419,7 @@
         <v>19</v>
       </c>
       <c r="G567" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H567" s="2">
         <v>1.27</v>
@@ -18512,7 +18512,7 @@
         <v>19</v>
       </c>
       <c r="G570" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H570" s="2">
         <v>1.52</v>
@@ -18539,7 +18539,7 @@
         <v>19</v>
       </c>
       <c r="G571" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H571" s="2">
         <v>1.52</v>
@@ -18566,7 +18566,7 @@
         <v>19</v>
       </c>
       <c r="G572" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H572" s="2">
         <v>1.52</v>
@@ -18593,7 +18593,7 @@
         <v>19</v>
       </c>
       <c r="G573" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H573" s="2">
         <v>0.35</v>
@@ -18620,7 +18620,7 @@
         <v>19</v>
       </c>
       <c r="G574" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H574" s="2">
         <v>0.35</v>
@@ -18647,7 +18647,7 @@
         <v>19</v>
       </c>
       <c r="G575" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H575" s="2">
         <v>0.35</v>
@@ -18680,7 +18680,7 @@
         <v>19</v>
       </c>
       <c r="G576" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H576" s="2">
         <v>0.51</v>
@@ -18713,7 +18713,7 @@
         <v>19</v>
       </c>
       <c r="G577" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H577" s="2">
         <v>0.51</v>
@@ -18746,7 +18746,7 @@
         <v>19</v>
       </c>
       <c r="G578" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H578" s="2">
         <v>0.51</v>
@@ -18854,7 +18854,7 @@
         <v>19</v>
       </c>
       <c r="G582" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H582" s="2">
         <v>0.64</v>
@@ -18881,7 +18881,7 @@
         <v>19</v>
       </c>
       <c r="G583" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H583" s="2">
         <v>0.64</v>
@@ -18908,7 +18908,7 @@
         <v>19</v>
       </c>
       <c r="G584" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H584" s="2">
         <v>0.64</v>
@@ -18935,7 +18935,7 @@
         <v>19</v>
       </c>
       <c r="G585" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H585" s="2">
         <v>0.61</v>
@@ -18962,7 +18962,7 @@
         <v>19</v>
       </c>
       <c r="G586" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H586" s="2">
         <v>0.61</v>
@@ -18989,7 +18989,7 @@
         <v>19</v>
       </c>
       <c r="G587" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H587" s="2">
         <v>0.61</v>
@@ -19016,7 +19016,7 @@
         <v>19</v>
       </c>
       <c r="G588" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H588" s="2">
         <v>0.61</v>
@@ -19043,7 +19043,7 @@
         <v>19</v>
       </c>
       <c r="G589" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H589" s="2">
         <v>0.61</v>
@@ -19076,7 +19076,7 @@
         <v>19</v>
       </c>
       <c r="G590" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H590" s="2">
         <v>0.8</v>
@@ -19109,7 +19109,7 @@
         <v>19</v>
       </c>
       <c r="G591" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H591" s="2">
         <v>0.8</v>
@@ -19142,7 +19142,7 @@
         <v>19</v>
       </c>
       <c r="G592" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H592" s="2">
         <v>0.8</v>
@@ -19175,7 +19175,7 @@
         <v>19</v>
       </c>
       <c r="G593" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H593" s="2">
         <v>0.8</v>
@@ -19202,7 +19202,7 @@
         <v>19</v>
       </c>
       <c r="G594" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H594" s="2">
         <v>0.26</v>
@@ -19229,7 +19229,7 @@
         <v>19</v>
       </c>
       <c r="G595" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H595" s="2">
         <v>0.26</v>
@@ -19256,7 +19256,7 @@
         <v>19</v>
       </c>
       <c r="G596" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H596" s="2">
         <v>0.26</v>
@@ -19283,7 +19283,7 @@
         <v>19</v>
       </c>
       <c r="G597" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H597" s="2">
         <v>0.26</v>
@@ -19310,7 +19310,7 @@
         <v>19</v>
       </c>
       <c r="G598" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H598" s="2">
         <v>0.26</v>
@@ -19337,7 +19337,7 @@
         <v>19</v>
       </c>
       <c r="G599" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H599" s="2">
         <v>0.63</v>
@@ -19364,7 +19364,7 @@
         <v>19</v>
       </c>
       <c r="G600" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H600" s="2">
         <v>0.63</v>
@@ -19391,7 +19391,7 @@
         <v>19</v>
       </c>
       <c r="G601" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H601" s="2">
         <v>0.63</v>
@@ -19418,7 +19418,7 @@
         <v>19</v>
       </c>
       <c r="G602" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H602" s="2">
         <v>0.63</v>
@@ -19445,7 +19445,7 @@
         <v>19</v>
       </c>
       <c r="G603" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H603" s="2">
         <v>0.63</v>
@@ -19478,7 +19478,7 @@
         <v>19</v>
       </c>
       <c r="G604" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H604" s="2">
         <v>1.27</v>
@@ -19511,7 +19511,7 @@
         <v>19</v>
       </c>
       <c r="G605" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H605" s="2">
         <v>1.27</v>
@@ -19544,7 +19544,7 @@
         <v>19</v>
       </c>
       <c r="G606" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H606" s="2">
         <v>1.27</v>
@@ -19577,7 +19577,7 @@
         <v>19</v>
       </c>
       <c r="G607" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H607" s="2">
         <v>1.27</v>
@@ -19610,7 +19610,7 @@
         <v>19</v>
       </c>
       <c r="G608" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H608" s="2">
         <v>1</v>
@@ -19643,7 +19643,7 @@
         <v>19</v>
       </c>
       <c r="G609" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H609" s="2">
         <v>1</v>
@@ -19676,7 +19676,7 @@
         <v>19</v>
       </c>
       <c r="G610" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H610" s="2">
         <v>1</v>
@@ -19709,7 +19709,7 @@
         <v>19</v>
       </c>
       <c r="G611" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H611" s="2">
         <v>0.36</v>
@@ -19742,7 +19742,7 @@
         <v>19</v>
       </c>
       <c r="G612" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H612" s="2">
         <v>0.36</v>
@@ -19775,7 +19775,7 @@
         <v>19</v>
       </c>
       <c r="G613" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H613" s="2">
         <v>0.36</v>
@@ -19808,7 +19808,7 @@
         <v>19</v>
       </c>
       <c r="G614" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H614" s="2">
         <v>0.36</v>
@@ -19841,7 +19841,7 @@
         <v>19</v>
       </c>
       <c r="G615" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H615" s="2">
         <v>0.36</v>
@@ -19874,7 +19874,7 @@
         <v>19</v>
       </c>
       <c r="G616" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H616" s="2">
         <v>0.36</v>
@@ -19907,7 +19907,7 @@
         <v>19</v>
       </c>
       <c r="G617" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H617" s="2">
         <v>0.36</v>
@@ -19940,7 +19940,7 @@
         <v>19</v>
       </c>
       <c r="G618" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H618" s="2">
         <v>0.36</v>
@@ -19973,7 +19973,7 @@
         <v>19</v>
       </c>
       <c r="G619" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H619" s="2">
         <v>0.7</v>
@@ -20006,7 +20006,7 @@
         <v>19</v>
       </c>
       <c r="G620" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H620" s="2">
         <v>0.7</v>
@@ -20039,7 +20039,7 @@
         <v>19</v>
       </c>
       <c r="G621" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H621" s="2">
         <v>0.7</v>
@@ -20072,7 +20072,7 @@
         <v>19</v>
       </c>
       <c r="G622" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H622" s="2">
         <v>0.7</v>
@@ -20105,7 +20105,7 @@
         <v>19</v>
       </c>
       <c r="G623" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H623" s="2">
         <v>0.7</v>
@@ -20138,7 +20138,7 @@
         <v>19</v>
       </c>
       <c r="G624" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H624" s="2">
         <v>0.7</v>
@@ -20171,7 +20171,7 @@
         <v>19</v>
       </c>
       <c r="G625" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H625" s="2">
         <v>0.7</v>
@@ -20204,7 +20204,7 @@
         <v>19</v>
       </c>
       <c r="G626" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H626" s="2">
         <v>0.7</v>
@@ -20237,7 +20237,7 @@
         <v>19</v>
       </c>
       <c r="G627" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H627" s="2">
         <v>1.27</v>
@@ -20270,7 +20270,7 @@
         <v>19</v>
       </c>
       <c r="G628" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H628" s="2">
         <v>1.27</v>
@@ -20303,7 +20303,7 @@
         <v>19</v>
       </c>
       <c r="G629" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H629" s="2">
         <v>1.27</v>
@@ -20336,7 +20336,7 @@
         <v>19</v>
       </c>
       <c r="G630" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H630" s="2">
         <v>1.27</v>
@@ -20369,7 +20369,7 @@
         <v>19</v>
       </c>
       <c r="G631" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H631" s="2">
         <v>1.27</v>
@@ -20402,7 +20402,7 @@
         <v>19</v>
       </c>
       <c r="G632" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H632" s="2">
         <v>1.27</v>
@@ -20435,7 +20435,7 @@
         <v>19</v>
       </c>
       <c r="G633" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H633" s="2">
         <v>1.27</v>
@@ -20468,7 +20468,7 @@
         <v>19</v>
       </c>
       <c r="G634" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H634" s="2">
         <v>1.27</v>
@@ -20501,7 +20501,7 @@
         <v>19</v>
       </c>
       <c r="G635" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H635" s="2">
         <v>0.1</v>
@@ -20534,7 +20534,7 @@
         <v>19</v>
       </c>
       <c r="G636" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H636" s="2">
         <v>0.1</v>
@@ -20567,7 +20567,7 @@
         <v>19</v>
       </c>
       <c r="G637" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H637" s="2">
         <v>0.1</v>
@@ -20600,7 +20600,7 @@
         <v>19</v>
       </c>
       <c r="G638" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H638" s="2">
         <v>0.1</v>
@@ -20633,7 +20633,7 @@
         <v>19</v>
       </c>
       <c r="G639" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H639" s="2">
         <v>0.1</v>
@@ -20666,7 +20666,7 @@
         <v>19</v>
       </c>
       <c r="G640" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H640" s="2">
         <v>0.1</v>
@@ -20699,7 +20699,7 @@
         <v>19</v>
       </c>
       <c r="G641" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H641" s="2">
         <v>0.1</v>
@@ -20732,7 +20732,7 @@
         <v>19</v>
       </c>
       <c r="G642" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H642" s="2">
         <v>0.1</v>
@@ -20765,7 +20765,7 @@
         <v>19</v>
       </c>
       <c r="G643" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H643" s="2">
         <v>0.6</v>
@@ -20798,7 +20798,7 @@
         <v>19</v>
       </c>
       <c r="G644" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H644" s="2">
         <v>0.6</v>
@@ -20831,7 +20831,7 @@
         <v>19</v>
       </c>
       <c r="G645" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H645" s="2">
         <v>0.6</v>
@@ -20864,7 +20864,7 @@
         <v>19</v>
       </c>
       <c r="G646" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H646" s="2">
         <v>0.6</v>
@@ -20897,7 +20897,7 @@
         <v>19</v>
       </c>
       <c r="G647" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H647" s="2">
         <v>0.6</v>
@@ -20930,7 +20930,7 @@
         <v>19</v>
       </c>
       <c r="G648" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H648" s="2">
         <v>0.6</v>
@@ -20963,7 +20963,7 @@
         <v>19</v>
       </c>
       <c r="G649" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H649" s="2">
         <v>0.6</v>
@@ -20996,7 +20996,7 @@
         <v>19</v>
       </c>
       <c r="G650" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H650" s="2">
         <v>0.6</v>
@@ -21029,7 +21029,7 @@
         <v>19</v>
       </c>
       <c r="G651" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H651" s="2">
         <v>0.35</v>
@@ -21161,7 +21161,7 @@
         <v>19</v>
       </c>
       <c r="G655" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H655" s="2">
         <v>0.35</v>
@@ -21188,7 +21188,7 @@
         <v>19</v>
       </c>
       <c r="G656" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H656" s="2">
         <v>1.13</v>
@@ -21215,7 +21215,7 @@
         <v>19</v>
       </c>
       <c r="G657" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H657" s="2">
         <v>1.13</v>
@@ -21242,7 +21242,7 @@
         <v>19</v>
       </c>
       <c r="G658" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H658" s="2">
         <v>1.13</v>
@@ -21269,7 +21269,7 @@
         <v>19</v>
       </c>
       <c r="G659" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H659" s="2">
         <v>0.35</v>
@@ -21296,7 +21296,7 @@
         <v>19</v>
       </c>
       <c r="G660" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H660" s="2">
         <v>0.35</v>
@@ -21323,7 +21323,7 @@
         <v>19</v>
       </c>
       <c r="G661" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H661" s="2">
         <v>0.35</v>
@@ -21356,7 +21356,7 @@
         <v>19</v>
       </c>
       <c r="G662" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H662" s="2">
         <v>0.51</v>
@@ -21389,7 +21389,7 @@
         <v>19</v>
       </c>
       <c r="G663" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H663" s="2">
         <v>0.51</v>
@@ -21422,7 +21422,7 @@
         <v>19</v>
       </c>
       <c r="G664" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H664" s="2">
         <v>0.51</v>
@@ -21530,7 +21530,7 @@
         <v>19</v>
       </c>
       <c r="G668" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H668" s="2">
         <v>0.64</v>
@@ -21557,7 +21557,7 @@
         <v>19</v>
       </c>
       <c r="G669" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H669" s="2">
         <v>0.64</v>
@@ -21584,7 +21584,7 @@
         <v>19</v>
       </c>
       <c r="G670" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H670" s="2">
         <v>0.64</v>
@@ -21611,7 +21611,7 @@
         <v>19</v>
       </c>
       <c r="G671" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H671" s="2">
         <v>0.64</v>
@@ -21638,7 +21638,7 @@
         <v>19</v>
       </c>
       <c r="G672" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H672" s="2">
         <v>0.61</v>
@@ -21665,7 +21665,7 @@
         <v>19</v>
       </c>
       <c r="G673" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H673" s="2">
         <v>0.61</v>
@@ -21692,7 +21692,7 @@
         <v>19</v>
       </c>
       <c r="G674" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H674" s="2">
         <v>0.61</v>
@@ -21719,7 +21719,7 @@
         <v>19</v>
       </c>
       <c r="G675" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H675" s="2">
         <v>0.61</v>
@@ -21752,7 +21752,7 @@
         <v>19</v>
       </c>
       <c r="G676" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H676" s="2">
         <v>0.8</v>
@@ -21785,7 +21785,7 @@
         <v>19</v>
       </c>
       <c r="G677" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H677" s="2">
         <v>0.8</v>
@@ -21818,7 +21818,7 @@
         <v>19</v>
       </c>
       <c r="G678" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H678" s="2">
         <v>0.8</v>
@@ -21851,7 +21851,7 @@
         <v>19</v>
       </c>
       <c r="G679" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H679" s="2">
         <v>0.8</v>
@@ -21878,7 +21878,7 @@
         <v>19</v>
       </c>
       <c r="G680" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H680" s="2">
         <v>0.26</v>
@@ -21905,7 +21905,7 @@
         <v>19</v>
       </c>
       <c r="G681" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H681" s="2">
         <v>0.26</v>
@@ -21932,7 +21932,7 @@
         <v>19</v>
       </c>
       <c r="G682" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H682" s="2">
         <v>0.26</v>
@@ -21959,7 +21959,7 @@
         <v>19</v>
       </c>
       <c r="G683" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H683" s="2">
         <v>0.26</v>
@@ -21986,7 +21986,7 @@
         <v>19</v>
       </c>
       <c r="G684" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H684" s="2">
         <v>0.26</v>
@@ -22013,7 +22013,7 @@
         <v>19</v>
       </c>
       <c r="G685" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H685" s="2">
         <v>0.63</v>
@@ -22040,7 +22040,7 @@
         <v>19</v>
       </c>
       <c r="G686" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H686" s="2">
         <v>0.63</v>
@@ -22067,7 +22067,7 @@
         <v>19</v>
       </c>
       <c r="G687" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H687" s="2">
         <v>0.63</v>
@@ -22094,7 +22094,7 @@
         <v>19</v>
       </c>
       <c r="G688" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H688" s="2">
         <v>0.63</v>
@@ -22121,7 +22121,7 @@
         <v>19</v>
       </c>
       <c r="G689" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H689" s="2">
         <v>0.63</v>
@@ -22154,7 +22154,7 @@
         <v>19</v>
       </c>
       <c r="G690" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H690" s="2">
         <v>1.27</v>
@@ -22187,7 +22187,7 @@
         <v>19</v>
       </c>
       <c r="G691" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H691" s="2">
         <v>1.27</v>
@@ -22220,7 +22220,7 @@
         <v>19</v>
       </c>
       <c r="G692" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H692" s="2">
         <v>1.27</v>
@@ -22253,7 +22253,7 @@
         <v>19</v>
       </c>
       <c r="G693" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H693" s="2">
         <v>1.27</v>
@@ -22280,13 +22280,13 @@
         <v>19</v>
       </c>
       <c r="G694" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H694" s="2">
         <v>1.52</v>
       </c>
       <c r="I694" s="2">
-        <f>I570-10</f>
+        <f t="shared" ref="I694:I711" si="11">I570-10</f>
         <v>-49</v>
       </c>
       <c r="J694" s="2">
@@ -22307,13 +22307,13 @@
         <v>19</v>
       </c>
       <c r="G695" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H695" s="2">
         <v>1.52</v>
       </c>
       <c r="I695" s="2">
-        <f>I571-10</f>
+        <f t="shared" si="11"/>
         <v>-48</v>
       </c>
       <c r="J695" s="2">
@@ -22334,13 +22334,13 @@
         <v>19</v>
       </c>
       <c r="G696" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H696" s="2">
         <v>1.52</v>
       </c>
       <c r="I696" s="2">
-        <f>I572-10</f>
+        <f t="shared" si="11"/>
         <v>-47</v>
       </c>
       <c r="J696" s="2">
@@ -22361,13 +22361,13 @@
         <v>19</v>
       </c>
       <c r="G697" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H697" s="2">
         <v>0.35</v>
       </c>
       <c r="I697" s="2">
-        <f>I573-10</f>
+        <f t="shared" si="11"/>
         <v>-49</v>
       </c>
       <c r="J697" s="2">
@@ -22388,13 +22388,13 @@
         <v>19</v>
       </c>
       <c r="G698" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H698" s="2">
         <v>0.35</v>
       </c>
       <c r="I698" s="2">
-        <f>I574-10</f>
+        <f t="shared" si="11"/>
         <v>-48</v>
       </c>
       <c r="J698" s="2">
@@ -22415,13 +22415,13 @@
         <v>19</v>
       </c>
       <c r="G699" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H699" s="2">
         <v>0.35</v>
       </c>
       <c r="I699" s="2">
-        <f>I575-10</f>
+        <f t="shared" si="11"/>
         <v>-47</v>
       </c>
       <c r="J699" s="2">
@@ -22448,13 +22448,13 @@
         <v>19</v>
       </c>
       <c r="G700" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H700" s="2">
         <v>0.51</v>
       </c>
       <c r="I700" s="2">
-        <f>I576-10</f>
+        <f t="shared" si="11"/>
         <v>-49</v>
       </c>
       <c r="J700" s="2">
@@ -22481,13 +22481,13 @@
         <v>19</v>
       </c>
       <c r="G701" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H701" s="2">
         <v>0.51</v>
       </c>
       <c r="I701" s="2">
-        <f>I577-10</f>
+        <f t="shared" si="11"/>
         <v>-48</v>
       </c>
       <c r="J701" s="2">
@@ -22514,13 +22514,13 @@
         <v>19</v>
       </c>
       <c r="G702" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H702" s="2">
         <v>0.51</v>
       </c>
       <c r="I702" s="2">
-        <f>I578-10</f>
+        <f t="shared" si="11"/>
         <v>-47</v>
       </c>
       <c r="J702" s="2">
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="I703" s="2">
-        <f>I579-10</f>
+        <f t="shared" si="11"/>
         <v>-49</v>
       </c>
       <c r="J703" s="2">
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="I704" s="2">
-        <f>I580-10</f>
+        <f t="shared" si="11"/>
         <v>-48</v>
       </c>
       <c r="J704" s="2">
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="I705" s="2">
-        <f>I581-10</f>
+        <f t="shared" si="11"/>
         <v>-47</v>
       </c>
       <c r="J705" s="2">
@@ -22622,13 +22622,13 @@
         <v>19</v>
       </c>
       <c r="G706" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H706" s="2">
         <v>0.64</v>
       </c>
       <c r="I706" s="2">
-        <f>I582-10</f>
+        <f t="shared" si="11"/>
         <v>-49</v>
       </c>
       <c r="J706" s="2">
@@ -22649,13 +22649,13 @@
         <v>19</v>
       </c>
       <c r="G707" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H707" s="2">
         <v>0.64</v>
       </c>
       <c r="I707" s="2">
-        <f>I583-10</f>
+        <f t="shared" si="11"/>
         <v>-48</v>
       </c>
       <c r="J707" s="2">
@@ -22676,13 +22676,13 @@
         <v>19</v>
       </c>
       <c r="G708" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H708" s="2">
         <v>0.64</v>
       </c>
       <c r="I708" s="2">
-        <f>I584-10</f>
+        <f t="shared" si="11"/>
         <v>-47</v>
       </c>
       <c r="J708" s="2">
@@ -22703,13 +22703,13 @@
         <v>19</v>
       </c>
       <c r="G709" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H709" s="2">
         <v>0.61</v>
       </c>
       <c r="I709" s="2">
-        <f>I585-10</f>
+        <f t="shared" si="11"/>
         <v>-46</v>
       </c>
       <c r="J709" s="2">
@@ -22730,13 +22730,13 @@
         <v>19</v>
       </c>
       <c r="G710" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H710" s="2">
         <v>0.61</v>
       </c>
       <c r="I710" s="2">
-        <f>I586-10</f>
+        <f t="shared" si="11"/>
         <v>-49</v>
       </c>
       <c r="J710" s="2">
@@ -22757,13 +22757,13 @@
         <v>19</v>
       </c>
       <c r="G711" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H711" s="2">
         <v>0.61</v>
       </c>
       <c r="I711" s="2">
-        <f>I587-10</f>
+        <f t="shared" si="11"/>
         <v>-48</v>
       </c>
       <c r="J711" s="2">
@@ -22784,13 +22784,13 @@
         <v>19</v>
       </c>
       <c r="G712" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H712" s="2">
         <v>0.61</v>
       </c>
       <c r="I712" s="2">
-        <f t="shared" ref="I712:I775" si="11">I588-10</f>
+        <f t="shared" ref="I712:I775" si="12">I588-10</f>
         <v>-47</v>
       </c>
       <c r="J712" s="2">
@@ -22811,13 +22811,13 @@
         <v>19</v>
       </c>
       <c r="G713" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H713" s="2">
         <v>0.61</v>
       </c>
       <c r="I713" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J713" s="2">
@@ -22844,13 +22844,13 @@
         <v>19</v>
       </c>
       <c r="G714" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H714" s="2">
         <v>0.8</v>
       </c>
       <c r="I714" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J714" s="2">
@@ -22877,13 +22877,13 @@
         <v>19</v>
       </c>
       <c r="G715" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H715" s="2">
         <v>0.8</v>
       </c>
       <c r="I715" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J715" s="2">
@@ -22910,13 +22910,13 @@
         <v>19</v>
       </c>
       <c r="G716" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H716" s="2">
         <v>0.8</v>
       </c>
       <c r="I716" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J716" s="2">
@@ -22943,13 +22943,13 @@
         <v>19</v>
       </c>
       <c r="G717" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H717" s="2">
         <v>0.8</v>
       </c>
       <c r="I717" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J717" s="2">
@@ -22970,13 +22970,13 @@
         <v>19</v>
       </c>
       <c r="G718" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H718" s="2">
         <v>0.26</v>
       </c>
       <c r="I718" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J718" s="2">
@@ -22997,13 +22997,13 @@
         <v>19</v>
       </c>
       <c r="G719" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H719" s="2">
         <v>0.26</v>
       </c>
       <c r="I719" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J719" s="2">
@@ -23024,13 +23024,13 @@
         <v>19</v>
       </c>
       <c r="G720" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H720" s="2">
         <v>0.26</v>
       </c>
       <c r="I720" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J720" s="2">
@@ -23051,13 +23051,13 @@
         <v>19</v>
       </c>
       <c r="G721" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H721" s="2">
         <v>0.26</v>
       </c>
       <c r="I721" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J721" s="2">
@@ -23078,13 +23078,13 @@
         <v>19</v>
       </c>
       <c r="G722" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H722" s="2">
         <v>0.26</v>
       </c>
       <c r="I722" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-45</v>
       </c>
       <c r="J722" s="2">
@@ -23105,13 +23105,13 @@
         <v>19</v>
       </c>
       <c r="G723" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H723" s="2">
         <v>0.63</v>
       </c>
       <c r="I723" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J723" s="2">
@@ -23132,13 +23132,13 @@
         <v>19</v>
       </c>
       <c r="G724" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H724" s="2">
         <v>0.63</v>
       </c>
       <c r="I724" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J724" s="2">
@@ -23159,13 +23159,13 @@
         <v>19</v>
       </c>
       <c r="G725" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H725" s="2">
         <v>0.63</v>
       </c>
       <c r="I725" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J725" s="2">
@@ -23186,13 +23186,13 @@
         <v>19</v>
       </c>
       <c r="G726" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H726" s="2">
         <v>0.63</v>
       </c>
       <c r="I726" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J726" s="2">
@@ -23213,13 +23213,13 @@
         <v>19</v>
       </c>
       <c r="G727" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H727" s="2">
         <v>0.63</v>
       </c>
       <c r="I727" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-45</v>
       </c>
       <c r="J727" s="2">
@@ -23246,13 +23246,13 @@
         <v>19</v>
       </c>
       <c r="G728" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H728" s="2">
         <v>1.27</v>
       </c>
       <c r="I728" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J728" s="2">
@@ -23279,13 +23279,13 @@
         <v>19</v>
       </c>
       <c r="G729" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H729" s="2">
         <v>1.27</v>
       </c>
       <c r="I729" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J729" s="2">
@@ -23312,13 +23312,13 @@
         <v>19</v>
       </c>
       <c r="G730" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H730" s="2">
         <v>1.27</v>
       </c>
       <c r="I730" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J730" s="2">
@@ -23345,13 +23345,13 @@
         <v>19</v>
       </c>
       <c r="G731" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H731" s="2">
         <v>1.27</v>
       </c>
       <c r="I731" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J731" s="2">
@@ -23378,13 +23378,13 @@
         <v>19</v>
       </c>
       <c r="G732" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H732" s="2">
         <v>1</v>
       </c>
       <c r="I732" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J732" s="2">
@@ -23411,13 +23411,13 @@
         <v>19</v>
       </c>
       <c r="G733" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H733" s="2">
         <v>1</v>
       </c>
       <c r="I733" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J733" s="2">
@@ -23444,13 +23444,13 @@
         <v>19</v>
       </c>
       <c r="G734" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H734" s="2">
         <v>1</v>
       </c>
       <c r="I734" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J734" s="2">
@@ -23477,13 +23477,13 @@
         <v>19</v>
       </c>
       <c r="G735" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H735" s="2">
         <v>0.36</v>
       </c>
       <c r="I735" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J735" s="2">
@@ -23510,13 +23510,13 @@
         <v>19</v>
       </c>
       <c r="G736" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H736" s="2">
         <v>0.36</v>
       </c>
       <c r="I736" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J736" s="2">
@@ -23543,13 +23543,13 @@
         <v>19</v>
       </c>
       <c r="G737" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H737" s="2">
         <v>0.36</v>
       </c>
       <c r="I737" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J737" s="2">
@@ -23576,13 +23576,13 @@
         <v>19</v>
       </c>
       <c r="G738" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H738" s="2">
         <v>0.36</v>
       </c>
       <c r="I738" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J738" s="2">
@@ -23609,13 +23609,13 @@
         <v>19</v>
       </c>
       <c r="G739" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H739" s="2">
         <v>0.36</v>
       </c>
       <c r="I739" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J739" s="2">
@@ -23642,13 +23642,13 @@
         <v>19</v>
       </c>
       <c r="G740" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H740" s="2">
         <v>0.36</v>
       </c>
       <c r="I740" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J740" s="2">
@@ -23675,13 +23675,13 @@
         <v>19</v>
       </c>
       <c r="G741" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H741" s="2">
         <v>0.36</v>
       </c>
       <c r="I741" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J741" s="2">
@@ -23708,13 +23708,13 @@
         <v>19</v>
       </c>
       <c r="G742" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H742" s="2">
         <v>0.36</v>
       </c>
       <c r="I742" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J742" s="2">
@@ -23741,13 +23741,13 @@
         <v>19</v>
       </c>
       <c r="G743" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H743" s="2">
         <v>0.7</v>
       </c>
       <c r="I743" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J743" s="2">
@@ -23774,13 +23774,13 @@
         <v>19</v>
       </c>
       <c r="G744" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H744" s="2">
         <v>0.7</v>
       </c>
       <c r="I744" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J744" s="2">
@@ -23807,13 +23807,13 @@
         <v>19</v>
       </c>
       <c r="G745" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H745" s="2">
         <v>0.7</v>
       </c>
       <c r="I745" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J745" s="2">
@@ -23840,13 +23840,13 @@
         <v>19</v>
       </c>
       <c r="G746" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H746" s="2">
         <v>0.7</v>
       </c>
       <c r="I746" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J746" s="2">
@@ -23873,13 +23873,13 @@
         <v>19</v>
       </c>
       <c r="G747" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H747" s="2">
         <v>0.7</v>
       </c>
       <c r="I747" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J747" s="2">
@@ -23906,13 +23906,13 @@
         <v>19</v>
       </c>
       <c r="G748" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H748" s="2">
         <v>0.7</v>
       </c>
       <c r="I748" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J748" s="2">
@@ -23939,13 +23939,13 @@
         <v>19</v>
       </c>
       <c r="G749" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H749" s="2">
         <v>0.7</v>
       </c>
       <c r="I749" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J749" s="2">
@@ -23972,13 +23972,13 @@
         <v>19</v>
       </c>
       <c r="G750" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H750" s="2">
         <v>0.7</v>
       </c>
       <c r="I750" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J750" s="2">
@@ -24005,13 +24005,13 @@
         <v>19</v>
       </c>
       <c r="G751" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H751" s="2">
         <v>1.27</v>
       </c>
       <c r="I751" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J751" s="2">
@@ -24038,13 +24038,13 @@
         <v>19</v>
       </c>
       <c r="G752" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H752" s="2">
         <v>1.27</v>
       </c>
       <c r="I752" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J752" s="2">
@@ -24071,13 +24071,13 @@
         <v>19</v>
       </c>
       <c r="G753" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H753" s="2">
         <v>1.27</v>
       </c>
       <c r="I753" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J753" s="2">
@@ -24104,13 +24104,13 @@
         <v>19</v>
       </c>
       <c r="G754" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H754" s="2">
         <v>1.27</v>
       </c>
       <c r="I754" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J754" s="2">
@@ -24137,13 +24137,13 @@
         <v>19</v>
       </c>
       <c r="G755" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H755" s="2">
         <v>1.27</v>
       </c>
       <c r="I755" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J755" s="2">
@@ -24170,13 +24170,13 @@
         <v>19</v>
       </c>
       <c r="G756" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H756" s="2">
         <v>1.27</v>
       </c>
       <c r="I756" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J756" s="2">
@@ -24203,13 +24203,13 @@
         <v>19</v>
       </c>
       <c r="G757" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H757" s="2">
         <v>1.27</v>
       </c>
       <c r="I757" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J757" s="2">
@@ -24236,13 +24236,13 @@
         <v>19</v>
       </c>
       <c r="G758" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H758" s="2">
         <v>1.27</v>
       </c>
       <c r="I758" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J758" s="2">
@@ -24269,13 +24269,13 @@
         <v>19</v>
       </c>
       <c r="G759" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H759" s="2">
         <v>0.1</v>
       </c>
       <c r="I759" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J759" s="2">
@@ -24302,13 +24302,13 @@
         <v>19</v>
       </c>
       <c r="G760" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H760" s="2">
         <v>0.1</v>
       </c>
       <c r="I760" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J760" s="2">
@@ -24335,13 +24335,13 @@
         <v>19</v>
       </c>
       <c r="G761" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H761" s="2">
         <v>0.1</v>
       </c>
       <c r="I761" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J761" s="2">
@@ -24368,13 +24368,13 @@
         <v>19</v>
       </c>
       <c r="G762" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H762" s="2">
         <v>0.1</v>
       </c>
       <c r="I762" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J762" s="2">
@@ -24401,13 +24401,13 @@
         <v>19</v>
       </c>
       <c r="G763" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H763" s="2">
         <v>0.1</v>
       </c>
       <c r="I763" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J763" s="2">
@@ -24434,13 +24434,13 @@
         <v>19</v>
       </c>
       <c r="G764" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H764" s="2">
         <v>0.1</v>
       </c>
       <c r="I764" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J764" s="2">
@@ -24467,13 +24467,13 @@
         <v>19</v>
       </c>
       <c r="G765" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H765" s="2">
         <v>0.1</v>
       </c>
       <c r="I765" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J765" s="2">
@@ -24500,13 +24500,13 @@
         <v>19</v>
       </c>
       <c r="G766" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H766" s="2">
         <v>0.1</v>
       </c>
       <c r="I766" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J766" s="2">
@@ -24533,13 +24533,13 @@
         <v>19</v>
       </c>
       <c r="G767" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H767" s="2">
         <v>0.6</v>
       </c>
       <c r="I767" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J767" s="2">
@@ -24566,13 +24566,13 @@
         <v>19</v>
       </c>
       <c r="G768" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H768" s="2">
         <v>0.6</v>
       </c>
       <c r="I768" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J768" s="2">
@@ -24599,13 +24599,13 @@
         <v>19</v>
       </c>
       <c r="G769" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H769" s="2">
         <v>0.6</v>
       </c>
       <c r="I769" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J769" s="2">
@@ -24632,13 +24632,13 @@
         <v>19</v>
       </c>
       <c r="G770" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H770" s="2">
         <v>0.6</v>
       </c>
       <c r="I770" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J770" s="2">
@@ -24665,13 +24665,13 @@
         <v>19</v>
       </c>
       <c r="G771" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H771" s="2">
         <v>0.6</v>
       </c>
       <c r="I771" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-49</v>
       </c>
       <c r="J771" s="2">
@@ -24698,13 +24698,13 @@
         <v>19</v>
       </c>
       <c r="G772" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H772" s="2">
         <v>0.6</v>
       </c>
       <c r="I772" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="J772" s="2">
@@ -24731,13 +24731,13 @@
         <v>19</v>
       </c>
       <c r="G773" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H773" s="2">
         <v>0.6</v>
       </c>
       <c r="I773" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-47</v>
       </c>
       <c r="J773" s="2">
@@ -24764,13 +24764,13 @@
         <v>19</v>
       </c>
       <c r="G774" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H774" s="2">
         <v>0.6</v>
       </c>
       <c r="I774" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J774" s="2">
@@ -24797,13 +24797,13 @@
         <v>19</v>
       </c>
       <c r="G775" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H775" s="2">
         <v>0.35</v>
       </c>
       <c r="I775" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-46</v>
       </c>
       <c r="J775" s="2">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="48">
   <si>
     <t>type</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>OAlb</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
   <dimension ref="A1:K769"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1679,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>0.791</v>
+        <v>1.13</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>16</v>
@@ -1705,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>0.791</v>
+        <v>1.13</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>18</v>
@@ -1731,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>0.791</v>
+        <v>1.13</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2797,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="2">
-        <v>0.791</v>
+        <v>1.13</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>16</v>
@@ -2823,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>0.791</v>
+        <v>1.13</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>18</v>
@@ -2849,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>0.791</v>
+        <v>1.13</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>28</v>
@@ -5245,7 +5248,9 @@
     <row r="133" spans="7:10">
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
+      <c r="I133" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="7:10">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="48">
   <si>
     <t>type</t>
   </si>
@@ -65,13 +65,13 @@
     <t>3</t>
   </si>
   <si>
+    <t>Ala</t>
+  </si>
+  <si>
     <t>VAC</t>
   </si>
   <si>
     <t>H2O</t>
-  </si>
-  <si>
-    <t>Ala</t>
   </si>
   <si>
     <t>720.6575</t>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>2,-8,-18,-28,-38,-48</t>
+  </si>
+  <si>
+    <t>3,-7,-17,-27,-37,-47</t>
   </si>
   <si>
     <t>2</t>
@@ -111,9 +114,6 @@
   </si>
   <si>
     <t>2,-8,-18,-28,-38</t>
-  </si>
-  <si>
-    <t>3,-7,-17,-27,-37,-47</t>
   </si>
   <si>
     <t>1</t>
@@ -1321,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K769"/>
+  <dimension ref="A1:K771"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1385,10 +1385,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1414,16 +1414,16 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -1449,10 +1449,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1478,16 +1478,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1507,86 +1507,86 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1595,126 +1595,138 @@
         <v>0.35</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1722,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1737,59 +1749,59 @@
         <v>1.13</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="1">
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
+      <c r="A15" s="1">
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1800,13 +1812,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1815,7 +1827,7 @@
         <v>0.35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1823,31 +1835,25 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1855,31 +1861,25 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -1902,7 +1902,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>0.51</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1919,54 +1919,66 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1989,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
@@ -2000,22 +2012,22 @@
         <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
@@ -2026,22 +2038,22 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" s="2">
         <v>2</v>
@@ -2058,7 +2070,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -2067,7 +2079,7 @@
         <v>0.83</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
@@ -2084,7 +2096,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -2093,7 +2105,7 @@
         <v>0.83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
@@ -2107,19 +2119,19 @@
         <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
@@ -2133,19 +2145,19 @@
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
@@ -2162,7 +2174,7 @@
         <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -2171,7 +2183,7 @@
         <v>0.61</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -2188,7 +2200,7 @@
         <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -2197,7 +2209,7 @@
         <v>0.61</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -2205,66 +2217,54 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J32" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2272,10 +2272,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>34</v>
@@ -2284,7 +2284,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0.8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>0.8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -2333,54 +2333,66 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J36" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2394,7 +2406,7 @@
         <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -2403,7 +2415,7 @@
         <v>0.26</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J37" s="2">
         <v>2</v>
@@ -2420,7 +2432,7 @@
         <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -2429,7 +2441,7 @@
         <v>0.26</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J38" s="2">
         <v>2</v>
@@ -2446,7 +2458,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -2455,7 +2467,7 @@
         <v>0.26</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J39" s="2">
         <v>2</v>
@@ -2466,22 +2478,22 @@
         <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J40" s="2">
         <v>2</v>
@@ -2492,22 +2504,22 @@
         <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J41" s="2">
         <v>2</v>
@@ -2524,7 +2536,7 @@
         <v>36</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -2533,7 +2545,7 @@
         <v>0.63</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -2550,7 +2562,7 @@
         <v>36</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -2559,7 +2571,7 @@
         <v>0.63</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -2576,7 +2588,7 @@
         <v>36</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -2585,7 +2597,7 @@
         <v>0.63</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
@@ -2593,66 +2605,54 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2660,10 +2660,10 @@
         <v>31</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>34</v>
@@ -2672,7 +2672,7 @@
         <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>1.27</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>31</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>34</v>
@@ -2704,7 +2704,7 @@
         <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -2713,126 +2713,138 @@
         <v>1.27</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="1">
-        <v>3</v>
+      <c r="A49" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1">
-        <v>3</v>
+      <c r="A50" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>20</v>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>20</v>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2843,10 +2855,10 @@
         <v>38</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -2855,59 +2867,59 @@
         <v>1.13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>29</v>
+      <c r="A54" s="1">
+        <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
       <c r="H54" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>29</v>
+      <c r="A55" s="1">
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -2924,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -2933,7 +2945,7 @@
         <v>0.35</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -2941,31 +2953,25 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2973,31 +2979,25 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
       </c>
       <c r="H58" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>31</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>39</v>
@@ -3020,7 +3020,7 @@
         <v>40</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>0.51</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -3037,54 +3037,66 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>41</v>
+      <c r="E60" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J60" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>41</v>
+      <c r="E61" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J61" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3107,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
@@ -3118,22 +3130,22 @@
         <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J63" s="2">
         <v>2</v>
@@ -3144,22 +3156,22 @@
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" s="2">
         <v>2</v>
@@ -3176,7 +3188,7 @@
         <v>39</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -3185,7 +3197,7 @@
         <v>0.83</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J65" s="2">
         <v>2</v>
@@ -3202,16 +3214,16 @@
         <v>39</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
       </c>
       <c r="H66" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J66" s="2">
         <v>2</v>
@@ -3225,19 +3237,19 @@
         <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J67" s="2">
         <v>2</v>
@@ -3251,10 +3263,10 @@
         <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -3263,7 +3275,7 @@
         <v>0.61</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -3280,7 +3292,7 @@
         <v>42</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -3289,7 +3301,7 @@
         <v>0.61</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J69" s="2">
         <v>2</v>
@@ -3306,7 +3318,7 @@
         <v>42</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -3315,7 +3327,7 @@
         <v>0.61</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J70" s="2">
         <v>2</v>
@@ -3323,66 +3335,54 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
       </c>
       <c r="H71" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
       </c>
       <c r="H72" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3390,10 +3390,10 @@
         <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>42</v>
@@ -3402,7 +3402,7 @@
         <v>40</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -3411,7 +3411,7 @@
         <v>0.8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>42</v>
@@ -3434,7 +3434,7 @@
         <v>40</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -3443,7 +3443,7 @@
         <v>0.8</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
@@ -3451,54 +3451,66 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J75" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
       </c>
       <c r="H76" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J76" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3512,7 +3524,7 @@
         <v>42</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -3521,7 +3533,7 @@
         <v>0.26</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J77" s="2">
         <v>2</v>
@@ -3538,7 +3550,7 @@
         <v>42</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -3547,7 +3559,7 @@
         <v>0.26</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
@@ -3564,7 +3576,7 @@
         <v>42</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -3573,7 +3585,7 @@
         <v>0.26</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J79" s="2">
         <v>2</v>
@@ -3584,22 +3596,22 @@
         <v>29</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F80" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
       </c>
       <c r="H80" s="2">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J80" s="2">
         <v>2</v>
@@ -3610,22 +3622,22 @@
         <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
       </c>
       <c r="H81" s="2">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J81" s="2">
         <v>2</v>
@@ -3642,7 +3654,7 @@
         <v>43</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -3651,7 +3663,7 @@
         <v>0.63</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J82" s="2">
         <v>2</v>
@@ -3668,7 +3680,7 @@
         <v>43</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -3677,7 +3689,7 @@
         <v>0.63</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
@@ -3694,7 +3706,7 @@
         <v>43</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -3703,7 +3715,7 @@
         <v>0.63</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
@@ -3711,66 +3723,54 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J85" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
       </c>
       <c r="H86" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J86" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3778,10 +3778,10 @@
         <v>31</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>42</v>
@@ -3790,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -3799,7 +3799,7 @@
         <v>1.27</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
@@ -3822,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>1.27</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -3839,31 +3839,31 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="2">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J89" s="2">
         <v>0</v>
@@ -3871,31 +3871,31 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
       </c>
       <c r="H90" s="2">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -3903,22 +3903,22 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>1.5</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -3935,31 +3935,31 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="2">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -3967,31 +3967,31 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
       </c>
       <c r="H93" s="2">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>43</v>
@@ -4014,7 +4014,7 @@
         <v>44</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>0.36</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -4034,10 +4034,10 @@
         <v>31</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>43</v>
@@ -4046,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>0.36</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
@@ -4066,19 +4066,19 @@
         <v>31</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>0.36</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
@@ -4098,19 +4098,19 @@
         <v>31</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -4119,7 +4119,7 @@
         <v>0.36</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
@@ -4130,10 +4130,10 @@
         <v>31</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>36</v>
@@ -4142,7 +4142,7 @@
         <v>37</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>0.36</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -4162,10 +4162,10 @@
         <v>31</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>36</v>
@@ -4174,7 +4174,7 @@
         <v>37</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -4183,7 +4183,7 @@
         <v>0.36</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
@@ -4191,31 +4191,31 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="2">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J100" s="2">
         <v>0</v>
@@ -4223,31 +4223,31 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
       </c>
       <c r="H101" s="2">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -4255,13 +4255,13 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>43</v>
@@ -4270,7 +4270,7 @@
         <v>44</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>0.7</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -4287,13 +4287,13 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>43</v>
@@ -4302,7 +4302,7 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>0.7</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -4319,22 +4319,22 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -4343,7 +4343,7 @@
         <v>0.7</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -4351,22 +4351,22 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>0.7</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -4383,13 +4383,13 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>36</v>
@@ -4398,7 +4398,7 @@
         <v>37</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -4407,7 +4407,7 @@
         <v>0.7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -4415,13 +4415,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>36</v>
@@ -4430,7 +4430,7 @@
         <v>37</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -4439,7 +4439,7 @@
         <v>0.7</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -4447,31 +4447,31 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
       </c>
       <c r="H108" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -4479,31 +4479,31 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
       </c>
       <c r="H109" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>34</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>1.27</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -4543,13 +4543,13 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>34</v>
@@ -4558,7 +4558,7 @@
         <v>37</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
@@ -4567,7 +4567,7 @@
         <v>1.27</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -4575,22 +4575,22 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
@@ -4599,7 +4599,7 @@
         <v>1.27</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -4607,22 +4607,22 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>1.27</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -4639,13 +4639,13 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>42</v>
@@ -4654,7 +4654,7 @@
         <v>44</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G114" s="2">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>1.27</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -4671,13 +4671,13 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>42</v>
@@ -4686,7 +4686,7 @@
         <v>44</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G115" s="2">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>1.27</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -4703,31 +4703,31 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
       </c>
       <c r="H116" s="2">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -4735,31 +4735,31 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G117" s="2">
         <v>1</v>
       </c>
       <c r="H117" s="2">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -4773,16 +4773,16 @@
         <v>45</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F118" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G118" s="2">
         <v>1</v>
@@ -4791,7 +4791,7 @@
         <v>0.1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -4805,16 +4805,16 @@
         <v>45</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G119" s="2">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>0.1</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -4834,19 +4834,19 @@
         <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G120" s="2">
         <v>1</v>
@@ -4855,7 +4855,7 @@
         <v>0.1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -4866,19 +4866,19 @@
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F121" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>0.1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -4901,16 +4901,16 @@
         <v>46</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G122" s="2">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         <v>0.1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -4933,16 +4933,16 @@
         <v>46</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -4951,7 +4951,7 @@
         <v>0.1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -4959,31 +4959,31 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="2">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="2">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -4991,31 +4991,31 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
       </c>
       <c r="H125" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -5023,13 +5023,13 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>37</v>
@@ -5038,7 +5038,7 @@
         <v>46</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -5047,7 +5047,7 @@
         <v>0.6</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -5055,13 +5055,13 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>37</v>
@@ -5070,7 +5070,7 @@
         <v>46</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -5079,7 +5079,7 @@
         <v>0.6</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -5087,22 +5087,22 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -5111,7 +5111,7 @@
         <v>0.6</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -5119,22 +5119,22 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -5143,7 +5143,7 @@
         <v>0.6</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -5151,13 +5151,13 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>44</v>
@@ -5166,7 +5166,7 @@
         <v>45</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -5175,7 +5175,7 @@
         <v>0.6</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -5183,13 +5183,13 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>44</v>
@@ -5198,7 +5198,7 @@
         <v>45</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G131" s="2">
         <v>1</v>
@@ -5207,7 +5207,7 @@
         <v>0.6</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -5215,54 +5215,106 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="2">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2">
+      <c r="F134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2">
         <v>0.75</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="7:10">
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="7:10">
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
+      <c r="I134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="7:10">
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
+      <c r="I135" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="7:10">
@@ -9069,6 +9121,18 @@
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
     </row>
+    <row r="770" spans="7:10">
+      <c r="G770" s="2"/>
+      <c r="H770" s="2"/>
+      <c r="I770" s="2"/>
+      <c r="J770" s="2"/>
+    </row>
+    <row r="771" spans="7:10">
+      <c r="G771" s="2"/>
+      <c r="H771" s="2"/>
+      <c r="I771" s="2"/>
+      <c r="J771" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="47">
   <si>
     <t>type</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>OAlb</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -1323,8 +1320,8 @@
   <sheetPr/>
   <dimension ref="A1:K771"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5312,9 +5309,7 @@
     <row r="135" spans="7:10">
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="7:10">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="47">
   <si>
     <t>type</t>
   </si>
@@ -1320,8 +1320,8 @@
   <sheetPr/>
   <dimension ref="A1:K771"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5306,101 +5306,517 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="7:10">
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-    </row>
-    <row r="136" spans="7:10">
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-    </row>
-    <row r="137" spans="7:10">
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-    </row>
-    <row r="138" spans="7:10">
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-    </row>
-    <row r="139" spans="7:10">
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="7:10">
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-    </row>
-    <row r="141" spans="7:10">
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-    </row>
-    <row r="142" spans="7:10">
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-    </row>
-    <row r="143" spans="7:10">
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-    </row>
-    <row r="144" spans="7:10">
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-    </row>
-    <row r="145" spans="7:10">
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-    </row>
-    <row r="146" spans="7:10">
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-    </row>
-    <row r="147" spans="7:10">
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-    </row>
-    <row r="148" spans="7:10">
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-    </row>
-    <row r="149" spans="7:10">
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-    </row>
-    <row r="150" spans="7:10">
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="7:10">
       <c r="G151" s="2"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="47">
   <si>
     <t>type</t>
   </si>
@@ -1318,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K771"/>
+  <dimension ref="A1:K774"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1731,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>1.13</v>
+        <v>0.695</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>16</v>
@@ -1757,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1.13</v>
+        <v>0.695</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>18</v>
@@ -1783,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>1.13</v>
+        <v>0.695</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>19</v>
@@ -1805,14 +1805,14 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
+      <c r="A16" s="1">
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
@@ -1831,14 +1831,14 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
+      <c r="A17" s="1">
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>23</v>
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>18</v>
@@ -1857,14 +1857,14 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
+      <c r="A18" s="1">
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>19</v>
@@ -1884,20 +1884,14 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>16</v>
@@ -1916,20 +1910,14 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>18</v>
@@ -1948,20 +1936,14 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1969,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>19</v>
@@ -1980,80 +1962,98 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>33</v>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2061,19 +2061,19 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>16</v>
@@ -2087,19 +2087,19 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>18</v>
@@ -2113,19 +2113,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>19</v>
@@ -2154,7 +2154,7 @@
         <v>0.83</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
@@ -2168,7 +2168,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>23</v>
@@ -2177,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>23</v>
@@ -2203,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -2220,7 +2220,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>23</v>
@@ -2229,10 +2229,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>0.61</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
@@ -2266,20 +2266,14 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
@@ -2287,31 +2281,25 @@
         <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F34" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,31 +2307,25 @@
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F35" s="1" t="s">
         <v>23</v>
       </c>
@@ -2351,13 +2333,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2386,7 +2368,7 @@
         <v>0.8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -2394,14 +2376,20 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F37" s="1" t="s">
         <v>23</v>
       </c>
@@ -2409,25 +2397,31 @@
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F38" s="1" t="s">
         <v>23</v>
       </c>
@@ -2435,25 +2429,31 @@
         <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F39" s="1" t="s">
         <v>23</v>
       </c>
@@ -2461,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J39" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2481,16 +2481,16 @@
         <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J40" s="2">
         <v>2</v>
@@ -2507,16 +2507,16 @@
         <v>34</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J41" s="2">
         <v>2</v>
@@ -2527,22 +2527,22 @@
         <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -2553,22 +2553,22 @@
         <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -2579,22 +2579,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
@@ -2620,7 +2620,7 @@
         <v>0.63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J45" s="2">
         <v>2</v>
@@ -2646,7 +2646,7 @@
         <v>0.63</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J46" s="2">
         <v>2</v>
@@ -2654,19 +2654,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>23</v>
@@ -2675,30 +2669,24 @@
         <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>23</v>
@@ -2707,30 +2695,24 @@
         <v>1</v>
       </c>
       <c r="H48" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J48" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>23</v>
@@ -2739,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2774,85 +2756,91 @@
         <v>1.27</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1">
-        <v>3</v>
+      <c r="A51" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1">
-        <v>3</v>
+      <c r="A52" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1">
-        <v>1</v>
+      <c r="A53" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>23</v>
@@ -2861,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -2872,65 +2860,77 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>21</v>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>21</v>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>29</v>
+      <c r="A56" s="1">
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>23</v>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>16</v>
@@ -2949,14 +2949,14 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>29</v>
+      <c r="A57" s="1">
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>23</v>
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>18</v>
@@ -2975,14 +2975,14 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
-        <v>29</v>
+      <c r="A58" s="1">
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>23</v>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>19</v>
@@ -3002,20 +3002,14 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F59" s="1" t="s">
         <v>23</v>
       </c>
@@ -3023,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>16</v>
@@ -3034,20 +3028,14 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F60" s="1" t="s">
         <v>23</v>
       </c>
@@ -3055,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>18</v>
@@ -3066,20 +3054,14 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F61" s="1" t="s">
         <v>23</v>
       </c>
@@ -3087,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>19</v>
@@ -3098,80 +3080,98 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>41</v>
+      <c r="E62" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>41</v>
+      <c r="E63" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>41</v>
+      <c r="E64" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3179,19 +3179,19 @@
         <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>16</v>
@@ -3205,19 +3205,19 @@
         <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>18</v>
@@ -3231,19 +3231,19 @@
         <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>19</v>
@@ -3269,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="H68" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -3286,7 +3286,7 @@
         <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>23</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J69" s="2">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
@@ -3321,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J70" s="2">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
@@ -3350,7 +3350,7 @@
         <v>0.61</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J71" s="2">
         <v>2</v>
@@ -3376,7 +3376,7 @@
         <v>0.61</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J72" s="2">
         <v>2</v>
@@ -3384,20 +3384,14 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F73" s="1" t="s">
         <v>23</v>
       </c>
@@ -3405,31 +3399,25 @@
         <v>1</v>
       </c>
       <c r="H73" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J73" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F74" s="1" t="s">
         <v>23</v>
       </c>
@@ -3437,31 +3425,25 @@
         <v>1</v>
       </c>
       <c r="H74" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F75" s="1" t="s">
         <v>23</v>
       </c>
@@ -3469,13 +3451,13 @@
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3504,7 +3486,7 @@
         <v>0.8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
@@ -3512,14 +3494,20 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
       </c>
@@ -3527,25 +3515,31 @@
         <v>1</v>
       </c>
       <c r="H77" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J77" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F78" s="1" t="s">
         <v>23</v>
       </c>
@@ -3553,25 +3547,31 @@
         <v>1</v>
       </c>
       <c r="H78" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J78" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
       </c>
@@ -3579,13 +3579,13 @@
         <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J79" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3599,16 +3599,16 @@
         <v>42</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="2">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J80" s="2">
         <v>2</v>
@@ -3625,16 +3625,16 @@
         <v>42</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="2">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J81" s="2">
         <v>2</v>
@@ -3645,22 +3645,22 @@
         <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J82" s="2">
         <v>2</v>
@@ -3671,22 +3671,22 @@
         <v>29</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
@@ -3697,22 +3697,22 @@
         <v>29</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
@@ -3738,7 +3738,7 @@
         <v>0.63</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J85" s="2">
         <v>2</v>
@@ -3764,7 +3764,7 @@
         <v>0.63</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J86" s="2">
         <v>2</v>
@@ -3772,19 +3772,13 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>23</v>
@@ -3793,30 +3787,24 @@
         <v>1</v>
       </c>
       <c r="H87" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
@@ -3825,30 +3813,24 @@
         <v>1</v>
       </c>
       <c r="H88" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J88" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
@@ -3857,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="H89" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J89" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3892,7 +3874,7 @@
         <v>1.27</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -3900,7 +3882,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>21</v>
@@ -3909,10 +3891,10 @@
         <v>22</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
@@ -3921,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="H91" s="2">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -3932,7 +3914,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>21</v>
@@ -3941,10 +3923,10 @@
         <v>22</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
@@ -3953,10 +3935,10 @@
         <v>1</v>
       </c>
       <c r="H92" s="2">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -3964,7 +3946,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>21</v>
@@ -3973,10 +3955,10 @@
         <v>22</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
@@ -3985,10 +3967,10 @@
         <v>1</v>
       </c>
       <c r="H93" s="2">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -3996,7 +3978,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>21</v>
@@ -4005,10 +3987,10 @@
         <v>22</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
@@ -4017,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="2">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>16</v>
@@ -4028,7 +4010,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>21</v>
@@ -4037,10 +4019,10 @@
         <v>22</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>23</v>
@@ -4049,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="2">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>18</v>
@@ -4060,7 +4042,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>21</v>
@@ -4069,10 +4051,10 @@
         <v>22</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>23</v>
@@ -4081,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="2">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>19</v>
@@ -4116,7 +4098,7 @@
         <v>0.36</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
@@ -4133,10 +4115,10 @@
         <v>22</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>23</v>
@@ -4148,7 +4130,7 @@
         <v>0.36</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -4165,10 +4147,10 @@
         <v>22</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>23</v>
@@ -4180,7 +4162,7 @@
         <v>0.36</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
@@ -4197,10 +4179,10 @@
         <v>22</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>23</v>
@@ -4212,7 +4194,7 @@
         <v>0.36</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J100" s="2">
         <v>0</v>
@@ -4244,7 +4226,7 @@
         <v>0.36</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -4252,7 +4234,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>21</v>
@@ -4261,10 +4243,10 @@
         <v>22</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>23</v>
@@ -4273,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="H102" s="2">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -4284,7 +4266,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>21</v>
@@ -4293,10 +4275,10 @@
         <v>22</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>23</v>
@@ -4305,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="H103" s="2">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -4316,7 +4298,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>21</v>
@@ -4325,10 +4307,10 @@
         <v>22</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>23</v>
@@ -4337,10 +4319,10 @@
         <v>1</v>
       </c>
       <c r="H104" s="2">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -4372,7 +4354,7 @@
         <v>0.7</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -4389,10 +4371,10 @@
         <v>22</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>23</v>
@@ -4404,7 +4386,7 @@
         <v>0.7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -4421,10 +4403,10 @@
         <v>22</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>23</v>
@@ -4436,7 +4418,7 @@
         <v>0.7</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -4453,10 +4435,10 @@
         <v>22</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>23</v>
@@ -4468,7 +4450,7 @@
         <v>0.7</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -4500,7 +4482,7 @@
         <v>0.7</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -4517,7 +4499,7 @@
         <v>22</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>37</v>
@@ -4529,10 +4511,10 @@
         <v>1</v>
       </c>
       <c r="H110" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -4549,7 +4531,7 @@
         <v>22</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>37</v>
@@ -4561,10 +4543,10 @@
         <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -4581,7 +4563,7 @@
         <v>22</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>37</v>
@@ -4593,10 +4575,10 @@
         <v>1</v>
       </c>
       <c r="H112" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -4628,7 +4610,7 @@
         <v>1.27</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -4645,10 +4627,10 @@
         <v>22</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>23</v>
@@ -4660,7 +4642,7 @@
         <v>1.27</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -4677,10 +4659,10 @@
         <v>22</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>23</v>
@@ -4692,7 +4674,7 @@
         <v>1.27</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -4709,10 +4691,10 @@
         <v>22</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>23</v>
@@ -4724,7 +4706,7 @@
         <v>1.27</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -4756,7 +4738,7 @@
         <v>1.27</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -4764,19 +4746,19 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>23</v>
@@ -4785,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="H118" s="2">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -4796,19 +4778,19 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>23</v>
@@ -4817,10 +4799,10 @@
         <v>1</v>
       </c>
       <c r="H119" s="2">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -4828,19 +4810,19 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>23</v>
@@ -4849,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="H120" s="2">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -4884,7 +4866,7 @@
         <v>0.1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -4895,7 +4877,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>22</v>
@@ -4904,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>23</v>
@@ -4916,7 +4898,7 @@
         <v>0.1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -4927,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>22</v>
@@ -4936,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>23</v>
@@ -4948,7 +4930,7 @@
         <v>0.1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -4959,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>22</v>
@@ -4968,7 +4950,7 @@
         <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>23</v>
@@ -4980,7 +4962,7 @@
         <v>0.1</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -5012,7 +4994,7 @@
         <v>0.1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -5020,19 +5002,19 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>23</v>
@@ -5041,10 +5023,10 @@
         <v>1</v>
       </c>
       <c r="H126" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -5052,19 +5034,19 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>23</v>
@@ -5073,10 +5055,10 @@
         <v>1</v>
       </c>
       <c r="H127" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -5084,19 +5066,19 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>23</v>
@@ -5105,10 +5087,10 @@
         <v>1</v>
       </c>
       <c r="H128" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -5140,7 +5122,7 @@
         <v>0.6</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -5157,10 +5139,10 @@
         <v>22</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>23</v>
@@ -5172,7 +5154,7 @@
         <v>0.6</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -5189,10 +5171,10 @@
         <v>22</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>23</v>
@@ -5204,7 +5186,7 @@
         <v>0.6</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -5221,10 +5203,10 @@
         <v>22</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>23</v>
@@ -5236,7 +5218,7 @@
         <v>0.6</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J132" s="2">
         <v>0</v>
@@ -5268,7 +5250,7 @@
         <v>0.6</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J133" s="2">
         <v>0</v>
@@ -5276,7 +5258,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>21</v>
@@ -5285,10 +5267,10 @@
         <v>22</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>23</v>
@@ -5297,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="H134" s="2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J134" s="2">
         <v>0</v>
@@ -5311,16 +5293,16 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>23</v>
@@ -5329,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="H135" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J135" s="2">
         <v>0</v>
@@ -5343,16 +5325,16 @@
         <v>20</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>23</v>
@@ -5361,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="H136" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J136" s="2">
         <v>0</v>
@@ -5372,20 +5354,20 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F137" s="1" t="s">
         <v>23</v>
       </c>
@@ -5393,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="H137" s="2">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J137" s="2">
         <v>0</v>
@@ -5428,7 +5410,7 @@
         <v>0.2</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -5445,10 +5427,10 @@
         <v>21</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>23</v>
@@ -5460,7 +5442,7 @@
         <v>0.2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -5477,10 +5459,10 @@
         <v>21</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>23</v>
@@ -5492,7 +5474,7 @@
         <v>0.2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -5509,10 +5491,10 @@
         <v>21</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>23</v>
@@ -5524,7 +5506,7 @@
         <v>0.2</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J141" s="2">
         <v>0</v>
@@ -5556,7 +5538,7 @@
         <v>0.2</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -5573,10 +5555,10 @@
         <v>21</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>23</v>
@@ -5588,7 +5570,7 @@
         <v>0.2</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -5605,10 +5587,10 @@
         <v>21</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>23</v>
@@ -5620,7 +5602,7 @@
         <v>0.2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
@@ -5637,10 +5619,10 @@
         <v>21</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>23</v>
@@ -5652,7 +5634,7 @@
         <v>0.2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J145" s="2">
         <v>0</v>
@@ -5684,7 +5666,7 @@
         <v>0.2</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -5701,10 +5683,10 @@
         <v>21</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>23</v>
@@ -5716,7 +5698,7 @@
         <v>0.2</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J147" s="2">
         <v>0</v>
@@ -5733,10 +5715,10 @@
         <v>21</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>23</v>
@@ -5748,7 +5730,7 @@
         <v>0.2</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J148" s="2">
         <v>0</v>
@@ -5765,10 +5747,10 @@
         <v>21</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>23</v>
@@ -5780,7 +5762,7 @@
         <v>0.2</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J149" s="2">
         <v>0</v>
@@ -5812,29 +5794,107 @@
         <v>0.2</v>
       </c>
       <c r="I150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I153" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="7:10">
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-    </row>
-    <row r="152" spans="7:10">
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-    </row>
-    <row r="153" spans="7:10">
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
+      <c r="J153" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="7:10">
       <c r="G154" s="2"/>
@@ -9544,6 +9604,24 @@
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
     </row>
+    <row r="772" spans="7:10">
+      <c r="G772" s="2"/>
+      <c r="H772" s="2"/>
+      <c r="I772" s="2"/>
+      <c r="J772" s="2"/>
+    </row>
+    <row r="773" spans="7:10">
+      <c r="G773" s="2"/>
+      <c r="H773" s="2"/>
+      <c r="I773" s="2"/>
+      <c r="J773" s="2"/>
+    </row>
+    <row r="774" spans="7:10">
+      <c r="G774" s="2"/>
+      <c r="H774" s="2"/>
+      <c r="I774" s="2"/>
+      <c r="J774" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="47">
   <si>
     <t>type</t>
   </si>
@@ -77,16 +77,10 @@
     <t>720.6575</t>
   </si>
   <si>
-    <t>1,-9,-19,-29,-39,-49</t>
+    <t>3,-7,-17,-27,-37,-47</t>
   </si>
   <si>
     <t>Alb</t>
-  </si>
-  <si>
-    <t>2,-8,-18,-28,-38,-48</t>
-  </si>
-  <si>
-    <t>3,-7,-17,-27,-37,-47</t>
   </si>
   <si>
     <t>2</t>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>4,-6,-16,-26,-36,-46</t>
+  </si>
+  <si>
+    <t>1,-9,-19,-29,-39,-49</t>
+  </si>
+  <si>
+    <t>2,-8,-18,-28,-38,-48</t>
   </si>
   <si>
     <t>OHAlbX3</t>
@@ -1318,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K774"/>
+  <dimension ref="A1:K770"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1440,223 +1440,211 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
+      <c r="A9" s="1">
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.695</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
+      <c r="A10" s="1">
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0.35</v>
+        <v>0.695</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1664,66 +1652,54 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1731,22 +1707,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>0.695</v>
+        <v>1.13</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1757,126 +1733,132 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.695</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.695</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>1</v>
+      <c r="A16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>1.13</v>
+        <v>0.35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.13</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1884,25 +1866,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1910,25 +1898,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1939,121 +1933,103 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2061,22 +2037,22 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
@@ -2087,22 +2063,22 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
@@ -2113,22 +2089,22 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
@@ -2142,19 +2118,19 @@
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
@@ -2168,19 +2144,19 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -2194,19 +2170,19 @@
         <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -2220,19 +2196,19 @@
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
@@ -2240,234 +2216,234 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J36" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2490,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J40" s="2">
         <v>2</v>
@@ -2501,22 +2477,22 @@
         <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J41" s="2">
         <v>2</v>
@@ -2527,22 +2503,22 @@
         <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -2553,22 +2529,22 @@
         <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -2579,22 +2555,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
@@ -2611,7 +2587,7 @@
         <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -2620,7 +2596,7 @@
         <v>0.63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J45" s="2">
         <v>2</v>
@@ -2628,228 +2604,240 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>36</v>
+      <c r="E46" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>36</v>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
+      <c r="E48" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="2">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>36</v>
+      <c r="E49" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1.13</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
@@ -2860,141 +2848,135 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1.13</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1">
-        <v>3</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1">
-        <v>1</v>
+      <c r="A56" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56" s="2">
-        <v>1.13</v>
+        <v>0.35</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1">
-        <v>1</v>
+      <c r="A57" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1.13</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2">
-        <v>1.13</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -3002,25 +2984,31 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E59" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F59" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59" s="2">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -3028,25 +3016,31 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
       <c r="H60" s="2">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -3057,121 +3051,103 @@
         <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="2">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J61" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3179,22 +3155,22 @@
         <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J65" s="2">
         <v>2</v>
@@ -3205,22 +3181,22 @@
         <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J66" s="2">
         <v>2</v>
@@ -3231,22 +3207,22 @@
         <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J67" s="2">
         <v>2</v>
@@ -3260,19 +3236,19 @@
         <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -3286,19 +3262,19 @@
         <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
       <c r="H69" s="2">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J69" s="2">
         <v>2</v>
@@ -3312,19 +3288,19 @@
         <v>41</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J70" s="2">
         <v>2</v>
@@ -3338,10 +3314,10 @@
         <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -3350,7 +3326,7 @@
         <v>0.61</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J71" s="2">
         <v>2</v>
@@ -3358,234 +3334,234 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="2">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F73" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
       </c>
       <c r="H73" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J73" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J74" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F75" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J75" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="2">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J76" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J78" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="2">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J79" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3608,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J80" s="2">
         <v>2</v>
@@ -3619,22 +3595,22 @@
         <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J81" s="2">
         <v>2</v>
@@ -3645,22 +3621,22 @@
         <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J82" s="2">
         <v>2</v>
@@ -3671,22 +3647,22 @@
         <v>29</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
@@ -3697,22 +3673,22 @@
         <v>29</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
@@ -3729,7 +3705,7 @@
         <v>43</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -3738,7 +3714,7 @@
         <v>0.63</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J85" s="2">
         <v>2</v>
@@ -3746,135 +3722,159 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>43</v>
+      <c r="E86" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="2">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J86" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>43</v>
+      <c r="E87" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
       </c>
       <c r="H87" s="2">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J87" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>43</v>
+      <c r="E88" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
       <c r="H88" s="2">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J88" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>43</v>
+      <c r="E89" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
       </c>
       <c r="H89" s="2">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J89" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G90" s="2">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -3882,31 +3882,31 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
       <c r="H91" s="2">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -3914,31 +3914,31 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="2">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -3949,28 +3949,28 @@
         <v>31</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G93" s="2">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -3978,31 +3978,31 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94" s="2">
-        <v>1.5</v>
+        <v>0.36</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -4010,31 +4010,31 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
       </c>
       <c r="H95" s="2">
-        <v>1.5</v>
+        <v>0.36</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
@@ -4042,31 +4042,31 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" s="2">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
@@ -4077,19 +4077,19 @@
         <v>31</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>0.36</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>31</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>0.36</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>31</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>0.36</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
@@ -4173,19 +4173,19 @@
         <v>31</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -4194,7 +4194,7 @@
         <v>0.36</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J100" s="2">
         <v>0</v>
@@ -4202,31 +4202,31 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G101" s="2">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -4234,31 +4234,31 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
       <c r="H102" s="2">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -4266,31 +4266,31 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
       </c>
       <c r="H103" s="2">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -4298,31 +4298,31 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" s="2">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -4330,22 +4330,22 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>0.7</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -4362,22 +4362,22 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -4386,7 +4386,7 @@
         <v>0.7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -4394,22 +4394,22 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>0.7</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -4426,22 +4426,22 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D108" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -4450,7 +4450,7 @@
         <v>0.7</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -4458,31 +4458,31 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D109" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G109" s="2">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -4490,31 +4490,31 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
       </c>
       <c r="H110" s="2">
-        <v>0.7</v>
+        <v>1.27</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -4522,31 +4522,31 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>0.7</v>
+        <v>1.27</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -4554,31 +4554,31 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
       </c>
       <c r="H112" s="2">
-        <v>0.7</v>
+        <v>1.27</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -4586,22 +4586,22 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>1.27</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -4618,22 +4618,22 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>1.27</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -4650,22 +4650,22 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>1.27</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -4682,22 +4682,22 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
@@ -4706,7 +4706,7 @@
         <v>1.27</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -4714,31 +4714,31 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D117" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G117" s="2">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -4746,31 +4746,31 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D118" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2">
         <v>1</v>
       </c>
       <c r="H118" s="2">
-        <v>1.27</v>
+        <v>0.1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -4778,31 +4778,31 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D119" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2">
         <v>1</v>
       </c>
       <c r="H119" s="2">
-        <v>1.27</v>
+        <v>0.1</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -4810,31 +4810,31 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="2">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -4845,19 +4845,19 @@
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>0.1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -4877,19 +4877,19 @@
         <v>11</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         <v>0.1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -4909,19 +4909,19 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -4930,7 +4930,7 @@
         <v>0.1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -4941,19 +4941,19 @@
         <v>11</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>0.1</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -4970,31 +4970,31 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="2">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G125" s="2">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -5002,31 +5002,31 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F126" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
       </c>
       <c r="H126" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -5034,31 +5034,31 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
       </c>
       <c r="H127" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -5066,31 +5066,31 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="F128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" s="2">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -5098,22 +5098,22 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -5122,7 +5122,7 @@
         <v>0.6</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -5130,22 +5130,22 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D130" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0.6</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -5162,22 +5162,22 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2">
         <v>1</v>
@@ -5186,7 +5186,7 @@
         <v>0.6</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -5194,22 +5194,22 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D132" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G132" s="2">
         <v>1</v>
@@ -5218,7 +5218,7 @@
         <v>0.6</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J132" s="2">
         <v>0</v>
@@ -5226,31 +5226,31 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" s="2">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J133" s="2">
         <v>0</v>
@@ -5258,31 +5258,31 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G134" s="2">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="J134" s="2">
         <v>0</v>
@@ -5290,31 +5290,31 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2">
         <v>1</v>
       </c>
       <c r="H135" s="2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J135" s="2">
         <v>0</v>
@@ -5322,31 +5322,31 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2">
         <v>1</v>
       </c>
       <c r="H136" s="2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J136" s="2">
         <v>0</v>
@@ -5354,31 +5354,31 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" s="2">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J137" s="2">
         <v>0</v>
@@ -5386,22 +5386,22 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>0.2</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -5418,22 +5418,22 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>0.2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -5450,22 +5450,22 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
@@ -5474,7 +5474,7 @@
         <v>0.2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -5482,22 +5482,22 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2">
         <v>1</v>
@@ -5506,7 +5506,7 @@
         <v>0.2</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J141" s="2">
         <v>0</v>
@@ -5514,22 +5514,22 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
@@ -5538,7 +5538,7 @@
         <v>0.2</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -5546,22 +5546,22 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G143" s="2">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>0.2</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -5578,22 +5578,22 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G144" s="2">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>0.2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
@@ -5610,22 +5610,22 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G145" s="2">
         <v>1</v>
@@ -5634,7 +5634,7 @@
         <v>0.2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J145" s="2">
         <v>0</v>
@@ -5642,22 +5642,22 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2">
         <v>1</v>
@@ -5666,7 +5666,7 @@
         <v>0.2</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -5674,22 +5674,22 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>0.2</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J147" s="2">
         <v>0</v>
@@ -5706,22 +5706,22 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -5730,7 +5730,7 @@
         <v>0.2</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J148" s="2">
         <v>0</v>
@@ -5738,22 +5738,22 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G149" s="2">
         <v>1</v>
@@ -5762,139 +5762,35 @@
         <v>0.2</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J149" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
-      <c r="A150" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" s="2">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" s="2">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" s="2">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J152" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" s="2">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J153" s="2">
-        <v>0</v>
-      </c>
+    <row r="150" spans="7:10">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="7:10">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="7:10">
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="7:10">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
     </row>
     <row r="154" spans="7:10">
       <c r="G154" s="2"/>
@@ -9598,30 +9494,6 @@
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
     </row>
-    <row r="771" spans="7:10">
-      <c r="G771" s="2"/>
-      <c r="H771" s="2"/>
-      <c r="I771" s="2"/>
-      <c r="J771" s="2"/>
-    </row>
-    <row r="772" spans="7:10">
-      <c r="G772" s="2"/>
-      <c r="H772" s="2"/>
-      <c r="I772" s="2"/>
-      <c r="J772" s="2"/>
-    </row>
-    <row r="773" spans="7:10">
-      <c r="G773" s="2"/>
-      <c r="H773" s="2"/>
-      <c r="I773" s="2"/>
-      <c r="J773" s="2"/>
-    </row>
-    <row r="774" spans="7:10">
-      <c r="G774" s="2"/>
-      <c r="H774" s="2"/>
-      <c r="I774" s="2"/>
-      <c r="J774" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25000" windowHeight="14180"/>
+    <workbookView windowWidth="30700" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="47">
   <si>
     <t>type</t>
   </si>
@@ -1318,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K770"/>
+  <dimension ref="A1:K771"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1475,10 +1475,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
@@ -1496,7 +1496,7 @@
         <v>0.35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1528,42 +1528,42 @@
         <v>0.35</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1600,28 +1600,34 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1644,7 +1650,7 @@
         <v>0.695</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1670,7 +1676,7 @@
         <v>0.695</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1681,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -1693,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>1.13</v>
+        <v>0.695</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1722,7 +1728,7 @@
         <v>1.13</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1748,21 +1754,21 @@
         <v>1.13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
+      <c r="A15" s="1">
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>21</v>
@@ -1771,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1800,7 +1806,7 @@
         <v>0.35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>0.35</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1834,20 +1840,14 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0.51</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0.51</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1930,28 +1930,34 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1974,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
@@ -2000,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
@@ -2011,22 +2017,22 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J24" s="2">
         <v>2</v>
@@ -2052,7 +2058,7 @@
         <v>0.83</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
@@ -2078,7 +2084,7 @@
         <v>0.83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
@@ -2104,7 +2110,7 @@
         <v>0.83</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
@@ -2118,7 +2124,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>21</v>
@@ -2127,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
@@ -2156,7 +2162,7 @@
         <v>0.61</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -2182,7 +2188,7 @@
         <v>0.61</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -2208,7 +2214,7 @@
         <v>0.61</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
@@ -2216,20 +2222,14 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2237,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2272,7 +2272,7 @@
         <v>0.8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0.8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0.8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2344,28 +2344,34 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2388,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" s="2">
         <v>2</v>
@@ -2414,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J38" s="2">
         <v>2</v>
@@ -2440,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J39" s="2">
         <v>2</v>
@@ -2466,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J40" s="2">
         <v>2</v>
@@ -2477,22 +2483,22 @@
         <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J41" s="2">
         <v>2</v>
@@ -2518,7 +2524,7 @@
         <v>0.63</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -2544,7 +2550,7 @@
         <v>0.63</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -2570,7 +2576,7 @@
         <v>0.63</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
@@ -2596,7 +2602,7 @@
         <v>0.63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J45" s="2">
         <v>2</v>
@@ -2604,19 +2610,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>21</v>
@@ -2625,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="H46" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2660,7 +2660,7 @@
         <v>1.27</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>1.27</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -2724,42 +2724,42 @@
         <v>1.27</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1">
-        <v>3</v>
+      <c r="A50" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -2796,28 +2796,34 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>19</v>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2840,7 +2846,7 @@
         <v>1.13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -2866,21 +2872,21 @@
         <v>1.13</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>29</v>
+      <c r="A55" s="1">
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>21</v>
@@ -2889,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -2918,7 +2924,7 @@
         <v>0.35</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -2944,7 +2950,7 @@
         <v>0.35</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2952,20 +2958,14 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F58" s="1" t="s">
         <v>21</v>
       </c>
@@ -2973,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="H58" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0.51</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0.51</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -3048,28 +3048,34 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>41</v>
+      <c r="E61" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J61" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3092,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
@@ -3118,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J63" s="2">
         <v>2</v>
@@ -3129,22 +3135,22 @@
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J64" s="2">
         <v>2</v>
@@ -3170,7 +3176,7 @@
         <v>0.83</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J65" s="2">
         <v>2</v>
@@ -3196,7 +3202,7 @@
         <v>0.83</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J66" s="2">
         <v>2</v>
@@ -3219,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J67" s="2">
         <v>2</v>
@@ -3236,7 +3242,7 @@
         <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>21</v>
@@ -3248,7 +3254,7 @@
         <v>0.61</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -3274,7 +3280,7 @@
         <v>0.61</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J69" s="2">
         <v>2</v>
@@ -3300,7 +3306,7 @@
         <v>0.61</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J70" s="2">
         <v>2</v>
@@ -3326,7 +3332,7 @@
         <v>0.61</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J71" s="2">
         <v>2</v>
@@ -3334,20 +3340,14 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F72" s="1" t="s">
         <v>21</v>
       </c>
@@ -3355,13 +3355,13 @@
         <v>1</v>
       </c>
       <c r="H72" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3390,7 +3390,7 @@
         <v>0.8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0.8</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0.8</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
@@ -3462,28 +3462,34 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J76" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3506,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" s="2">
         <v>2</v>
@@ -3532,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
@@ -3558,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J79" s="2">
         <v>2</v>
@@ -3584,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J80" s="2">
         <v>2</v>
@@ -3595,22 +3601,22 @@
         <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J81" s="2">
         <v>2</v>
@@ -3636,7 +3642,7 @@
         <v>0.63</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J82" s="2">
         <v>2</v>
@@ -3662,7 +3668,7 @@
         <v>0.63</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
@@ -3688,7 +3694,7 @@
         <v>0.63</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
@@ -3714,7 +3720,7 @@
         <v>0.63</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J85" s="2">
         <v>2</v>
@@ -3722,19 +3728,13 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>21</v>
@@ -3743,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="H86" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J86" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3778,7 +3778,7 @@
         <v>1.27</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>1.27</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>1.27</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J89" s="2">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>19</v>
@@ -3859,10 +3859,10 @@
         <v>20</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>21</v>
@@ -3871,10 +3871,10 @@
         <v>1</v>
       </c>
       <c r="H90" s="2">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>1.5</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1.5</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>19</v>
@@ -3955,10 +3955,10 @@
         <v>20</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>21</v>
@@ -3967,10 +3967,10 @@
         <v>1</v>
       </c>
       <c r="H93" s="2">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0.36</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0.36</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0.36</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
@@ -4083,10 +4083,10 @@
         <v>20</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>21</v>
@@ -4098,7 +4098,7 @@
         <v>0.36</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0.36</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0.36</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0.36</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J100" s="2">
         <v>0</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>19</v>
@@ -4211,10 +4211,10 @@
         <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>21</v>
@@ -4223,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="H101" s="2">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0.7</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0.7</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>0.7</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -4339,10 +4339,10 @@
         <v>20</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>21</v>
@@ -4354,7 +4354,7 @@
         <v>0.7</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0.7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0.7</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>0.7</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>20</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>37</v>
@@ -4479,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="H109" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>1.27</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>1.27</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>1.27</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>20</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>21</v>
@@ -4610,7 +4610,7 @@
         <v>1.27</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>1.27</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>1.27</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>1.27</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -4714,19 +4714,19 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>21</v>
@@ -4735,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="H117" s="2">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>0.1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0.1</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0.1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>20</v>
@@ -4854,7 +4854,7 @@
         <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>21</v>
@@ -4866,7 +4866,7 @@
         <v>0.1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>0.1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -4930,7 +4930,7 @@
         <v>0.1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0.1</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -4970,19 +4970,19 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>21</v>
@@ -4991,10 +4991,10 @@
         <v>1</v>
       </c>
       <c r="H125" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0.6</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0.6</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0.6</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -5107,10 +5107,10 @@
         <v>20</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>21</v>
@@ -5122,7 +5122,7 @@
         <v>0.6</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0.6</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0.6</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>0.6</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J132" s="2">
         <v>0</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>19</v>
@@ -5235,10 +5235,10 @@
         <v>20</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>21</v>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>22</v>
@@ -5258,20 +5258,20 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F134" s="1" t="s">
         <v>21</v>
       </c>
@@ -5279,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="H134" s="2">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J134" s="2">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0.2</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J135" s="2">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0.2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J136" s="2">
         <v>0</v>
@@ -5378,7 +5378,7 @@
         <v>0.2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J137" s="2">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>19</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>21</v>
@@ -5410,7 +5410,7 @@
         <v>0.2</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -5442,7 +5442,7 @@
         <v>0.2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0.2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>0.2</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J141" s="2">
         <v>0</v>
@@ -5523,10 +5523,10 @@
         <v>19</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>21</v>
@@ -5538,7 +5538,7 @@
         <v>0.2</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -5570,7 +5570,7 @@
         <v>0.2</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>0.2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0.2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J145" s="2">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         <v>19</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>21</v>
@@ -5666,7 +5666,7 @@
         <v>0.2</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0.2</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J147" s="2">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>0.2</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J148" s="2">
         <v>0</v>
@@ -5762,17 +5762,43 @@
         <v>0.2</v>
       </c>
       <c r="I149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="7:10">
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="7:10">
       <c r="G151" s="2"/>
@@ -9494,6 +9520,12 @@
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
     </row>
+    <row r="771" spans="7:10">
+      <c r="G771" s="2"/>
+      <c r="H771" s="2"/>
+      <c r="I771" s="2"/>
+      <c r="J771" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -92,10 +92,19 @@
     <t>O</t>
   </si>
   <si>
+    <t>OAlbX</t>
+  </si>
+  <si>
+    <t>OAlb</t>
+  </si>
+  <si>
     <t>2.08e10</t>
   </si>
   <si>
-    <t>4,-6,-16,-26,-36,-46</t>
+    <t>OAlaX</t>
+  </si>
+  <si>
+    <t>OAla</t>
   </si>
   <si>
     <t>1,-9,-19,-29,-39,-49</t>
@@ -125,10 +134,10 @@
     <t>4</t>
   </si>
   <si>
-    <t>OAlbX</t>
+    <t>OAlbX2H2O</t>
   </si>
   <si>
-    <t>OAlbX2H2O</t>
+    <t>4,-6,-16,-26,-36,-46</t>
   </si>
   <si>
     <t>OAlbXOH</t>
@@ -149,9 +158,6 @@
     <t>OAlaX2</t>
   </si>
   <si>
-    <t>OAlaX</t>
-  </si>
-  <si>
     <t>OAlaX2H2O</t>
   </si>
   <si>
@@ -162,12 +168,6 @@
   </si>
   <si>
     <t>OAlaOH</t>
-  </si>
-  <si>
-    <t>OAla</t>
-  </si>
-  <si>
-    <t>OAlb</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:K771"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1449,22 +1449,22 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0.35</v>
+        <v>1.35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1481,19 +1481,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0.35</v>
+        <v>1.35</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
@@ -1519,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>0.35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>0.35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -1615,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0.695</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>0.695</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1713,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>1.13</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>1.13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1788,16 +1788,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>0.35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1814,16 +1814,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>0.35</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1840,16 +1840,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -1875,13 +1875,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>0.51</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -1907,13 +1907,13 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>0.51</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -1939,13 +1939,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
@@ -1988,13 +1988,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
@@ -2040,16 +2040,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>0.83</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
@@ -2066,16 +2066,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>0.83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2118,16 +2118,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -2136,7 +2136,7 @@
         <v>0.83</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
@@ -2144,16 +2144,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -2162,7 +2162,7 @@
         <v>0.61</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         <v>0.61</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -2240,7 +2240,7 @@
         <v>0.61</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
@@ -2257,13 +2257,13 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>0.8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>19</v>
@@ -2289,13 +2289,13 @@
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>0.8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -2321,13 +2321,13 @@
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -2353,13 +2353,13 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -2368,7 +2368,7 @@
         <v>0.8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J37" s="2">
         <v>2</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J38" s="2">
         <v>2</v>
@@ -2428,13 +2428,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J40" s="2">
         <v>2</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J41" s="2">
         <v>2</v>
@@ -2506,16 +2506,16 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0.63</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -2532,16 +2532,16 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -2550,7 +2550,7 @@
         <v>0.63</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -2558,16 +2558,16 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -2584,16 +2584,16 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>0.63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J45" s="2">
         <v>2</v>
@@ -2610,16 +2610,16 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -2628,7 +2628,7 @@
         <v>0.63</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J46" s="2">
         <v>2</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>19</v>
@@ -2645,13 +2645,13 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>1.27</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
@@ -2677,13 +2677,13 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>1.27</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
@@ -2709,13 +2709,13 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
@@ -2741,13 +2741,13 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -2756,7 +2756,7 @@
         <v>1.27</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>17</v>
@@ -2811,7 +2811,7 @@
         <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -2831,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -2846,7 +2846,7 @@
         <v>1.13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -2857,13 +2857,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         <v>1.13</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -2906,16 +2906,16 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>0.35</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -2932,16 +2932,16 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>0.35</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2958,16 +2958,16 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>19</v>
@@ -2993,13 +2993,13 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>0.51</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>19</v>
@@ -3025,13 +3025,13 @@
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>0.51</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>19</v>
@@ -3057,13 +3057,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J63" s="2">
         <v>2</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
@@ -3158,16 +3158,16 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>0.83</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J65" s="2">
         <v>2</v>
@@ -3184,16 +3184,16 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>0.83</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J66" s="2">
         <v>2</v>
@@ -3210,16 +3210,16 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -3254,7 +3254,7 @@
         <v>0.61</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -3262,16 +3262,16 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -3280,7 +3280,7 @@
         <v>0.61</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J69" s="2">
         <v>2</v>
@@ -3288,16 +3288,16 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -3306,7 +3306,7 @@
         <v>0.61</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J70" s="2">
         <v>2</v>
@@ -3314,16 +3314,16 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -3358,7 +3358,7 @@
         <v>0.61</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J72" s="2">
         <v>2</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>19</v>
@@ -3375,13 +3375,13 @@
         <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>0.8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>19</v>
@@ -3407,13 +3407,13 @@
         <v>20</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>0.8</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>19</v>
@@ -3439,13 +3439,13 @@
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>19</v>
@@ -3471,13 +3471,13 @@
         <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -3486,7 +3486,7 @@
         <v>0.8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
@@ -3494,13 +3494,13 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J77" s="2">
         <v>2</v>
@@ -3520,13 +3520,13 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>15</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
@@ -3546,13 +3546,13 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>15</v>
@@ -3572,13 +3572,13 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>15</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J80" s="2">
         <v>2</v>
@@ -3598,13 +3598,13 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J81" s="2">
         <v>2</v>
@@ -3624,16 +3624,16 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>0.63</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J82" s="2">
         <v>2</v>
@@ -3650,16 +3650,16 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>0.63</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
@@ -3676,16 +3676,16 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -3702,16 +3702,16 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -3720,7 +3720,7 @@
         <v>0.63</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J85" s="2">
         <v>2</v>
@@ -3728,16 +3728,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>0.63</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J86" s="2">
         <v>2</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>19</v>
@@ -3763,13 +3763,13 @@
         <v>20</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -3778,7 +3778,7 @@
         <v>1.27</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>19</v>
@@ -3795,13 +3795,13 @@
         <v>20</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>1.27</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>19</v>
@@ -3827,13 +3827,13 @@
         <v>20</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>19</v>
@@ -3859,13 +3859,13 @@
         <v>20</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         <v>1.27</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
@@ -3906,7 +3906,7 @@
         <v>1.5</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>1.5</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>19</v>
@@ -3987,13 +3987,13 @@
         <v>20</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
@@ -4002,7 +4002,7 @@
         <v>0.36</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>19</v>
@@ -4019,13 +4019,13 @@
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
@@ -4034,7 +4034,7 @@
         <v>0.36</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>19</v>
@@ -4051,13 +4051,13 @@
         <v>20</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>19</v>
@@ -4083,13 +4083,13 @@
         <v>20</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>0.36</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>19</v>
@@ -4115,13 +4115,13 @@
         <v>20</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>0.36</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>19</v>
@@ -4147,13 +4147,13 @@
         <v>20</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>0.36</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>19</v>
@@ -4179,13 +4179,13 @@
         <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>19</v>
@@ -4211,13 +4211,13 @@
         <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>0.36</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -4243,13 +4243,13 @@
         <v>20</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>0.7</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -4275,13 +4275,13 @@
         <v>20</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>0.7</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -4307,13 +4307,13 @@
         <v>20</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -4339,13 +4339,13 @@
         <v>20</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>0.7</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -4371,13 +4371,13 @@
         <v>20</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -4386,7 +4386,7 @@
         <v>0.7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -4403,13 +4403,13 @@
         <v>20</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>0.7</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -4435,13 +4435,13 @@
         <v>20</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -4467,13 +4467,13 @@
         <v>20</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>0.7</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -4499,13 +4499,13 @@
         <v>20</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>1.27</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -4531,13 +4531,13 @@
         <v>20</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
@@ -4546,7 +4546,7 @@
         <v>1.27</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -4563,13 +4563,13 @@
         <v>20</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
@@ -4595,13 +4595,13 @@
         <v>20</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>1.27</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -4627,13 +4627,13 @@
         <v>20</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G114" s="2">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>1.27</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -4659,13 +4659,13 @@
         <v>20</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G115" s="2">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>1.27</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -4691,13 +4691,13 @@
         <v>20</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
@@ -4723,13 +4723,13 @@
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G117" s="2">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>1.27</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>20</v>
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G118" s="2">
         <v>1</v>
@@ -4770,7 +4770,7 @@
         <v>0.1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>11</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>20</v>
@@ -4793,7 +4793,7 @@
         <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G119" s="2">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>0.1</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>20</v>
@@ -4825,7 +4825,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G120" s="2">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>20</v>
@@ -4857,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>0.1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>20</v>
@@ -4889,7 +4889,7 @@
         <v>17</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G122" s="2">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         <v>0.1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>20</v>
@@ -4921,7 +4921,7 @@
         <v>17</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -4930,7 +4930,7 @@
         <v>0.1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>20</v>
@@ -4953,7 +4953,7 @@
         <v>17</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>20</v>
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         <v>0.1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -5011,13 +5011,13 @@
         <v>20</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -5026,7 +5026,7 @@
         <v>0.6</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -5043,13 +5043,13 @@
         <v>20</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -5058,7 +5058,7 @@
         <v>0.6</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -5075,13 +5075,13 @@
         <v>20</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -5107,13 +5107,13 @@
         <v>20</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -5122,7 +5122,7 @@
         <v>0.6</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -5139,13 +5139,13 @@
         <v>20</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0.6</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -5171,13 +5171,13 @@
         <v>20</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G131" s="2">
         <v>1</v>
@@ -5186,7 +5186,7 @@
         <v>0.6</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -5203,13 +5203,13 @@
         <v>20</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G132" s="2">
         <v>1</v>
@@ -5235,13 +5235,13 @@
         <v>20</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G133" s="2">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>0.6</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J133" s="2">
         <v>0</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>19</v>
@@ -5273,7 +5273,7 @@
         <v>19</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G134" s="2">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>0.75</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J134" s="2">
         <v>0</v>
@@ -5299,13 +5299,13 @@
         <v>19</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G135" s="2">
         <v>1</v>
@@ -5314,7 +5314,7 @@
         <v>0.2</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J135" s="2">
         <v>0</v>
@@ -5331,13 +5331,13 @@
         <v>19</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G136" s="2">
         <v>1</v>
@@ -5346,7 +5346,7 @@
         <v>0.2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J136" s="2">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         <v>19</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G137" s="2">
         <v>1</v>
@@ -5395,13 +5395,13 @@
         <v>19</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G138" s="2">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>0.2</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -5427,13 +5427,13 @@
         <v>19</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G139" s="2">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>0.2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -5459,13 +5459,13 @@
         <v>19</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
@@ -5474,7 +5474,7 @@
         <v>0.2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -5491,13 +5491,13 @@
         <v>19</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G141" s="2">
         <v>1</v>
@@ -5523,13 +5523,13 @@
         <v>19</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
@@ -5538,7 +5538,7 @@
         <v>0.2</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -5555,13 +5555,13 @@
         <v>19</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G143" s="2">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>0.2</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -5587,13 +5587,13 @@
         <v>19</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G144" s="2">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>0.2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
@@ -5619,13 +5619,13 @@
         <v>19</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G145" s="2">
         <v>1</v>
@@ -5651,13 +5651,13 @@
         <v>19</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G146" s="2">
         <v>1</v>
@@ -5666,7 +5666,7 @@
         <v>0.2</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -5683,13 +5683,13 @@
         <v>19</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G147" s="2">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>0.2</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J147" s="2">
         <v>0</v>
@@ -5715,13 +5715,13 @@
         <v>19</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -5730,7 +5730,7 @@
         <v>0.2</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J148" s="2">
         <v>0</v>
@@ -5747,13 +5747,13 @@
         <v>19</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G149" s="2">
         <v>1</v>
@@ -5779,13 +5779,13 @@
         <v>19</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G150" s="2">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>0.2</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J150" s="2">
         <v>0</v>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="47">
   <si>
     <t>type</t>
   </si>
@@ -62,6 +62,18 @@
     <t>expression</t>
   </si>
   <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>2.08e10</t>
+  </si>
+  <si>
+    <t>4,-6,-16,-26,-36,-46</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -86,19 +98,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>OAlbX</t>
   </si>
   <si>
     <t>OAlb</t>
-  </si>
-  <si>
-    <t>2.08e10</t>
   </si>
   <si>
     <t>OAlaX</t>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>OAlbX2H2O</t>
-  </si>
-  <si>
-    <t>4,-6,-16,-26,-36,-46</t>
   </si>
   <si>
     <t>OAlbXOH</t>
@@ -1318,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K771"/>
+  <dimension ref="A1:K773"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1375,55 +1375,49 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1432,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
@@ -1440,54 +1434,54 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1496,7 +1490,7 @@
         <v>1.35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1504,31 +1498,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1536,22 +1530,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1560,126 +1554,138 @@
         <v>0.35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>3</v>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>3</v>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1687,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1702,7 +1708,7 @@
         <v>0.695</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1713,22 +1719,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.695</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1739,22 +1745,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1.13</v>
+        <v>0.695</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1765,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1780,59 +1786,59 @@
         <v>1.13</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="1">
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.13</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="1">
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1840,16 +1846,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1858,7 +1864,7 @@
         <v>0.35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1866,31 +1872,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1898,31 +1898,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1930,22 +1924,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1954,7 +1948,7 @@
         <v>0.51</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -1962,68 +1956,80 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -2032,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J24" s="2">
         <v>2</v>
@@ -2040,25 +2046,25 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
@@ -2066,25 +2072,25 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
@@ -2092,16 +2098,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2110,7 +2116,7 @@
         <v>0.83</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
@@ -2118,16 +2124,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -2136,7 +2142,7 @@
         <v>0.83</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
@@ -2144,25 +2150,25 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -2170,25 +2176,25 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -2196,16 +2202,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -2214,7 +2220,7 @@
         <v>0.61</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
@@ -2222,16 +2228,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -2240,7 +2246,7 @@
         <v>0.61</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
@@ -2248,86 +2254,74 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -2336,7 +2330,7 @@
         <v>0.8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2344,22 +2338,22 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -2368,7 +2362,7 @@
         <v>0.8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -2376,68 +2370,80 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -2446,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J39" s="2">
         <v>2</v>
@@ -2454,16 +2460,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -2472,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2">
         <v>2</v>
@@ -2480,16 +2486,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -2498,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J41" s="2">
         <v>2</v>
@@ -2506,25 +2512,25 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -2532,25 +2538,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>37</v>
@@ -2567,7 +2573,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -2576,7 +2582,7 @@
         <v>0.63</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>37</v>
@@ -2593,7 +2599,7 @@
         <v>39</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -2602,7 +2608,7 @@
         <v>0.63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J45" s="2">
         <v>2</v>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>37</v>
@@ -2619,7 +2625,7 @@
         <v>39</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -2628,7 +2634,7 @@
         <v>0.63</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J46" s="2">
         <v>2</v>
@@ -2636,77 +2642,65 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J48" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>37</v>
@@ -2715,7 +2709,7 @@
         <v>40</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -2724,7 +2718,7 @@
         <v>1.27</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -2732,13 +2726,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
@@ -2747,7 +2741,7 @@
         <v>40</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -2756,126 +2750,138 @@
         <v>1.27</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1">
-        <v>3</v>
+      <c r="A51" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1">
-        <v>3</v>
+      <c r="A52" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>19</v>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>19</v>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2886,10 +2892,10 @@
         <v>41</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -2898,59 +2904,59 @@
         <v>1.13</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>32</v>
+      <c r="A56" s="1">
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>32</v>
+      <c r="A57" s="1">
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>0.35</v>
+        <v>1.13</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2958,7 +2964,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>41</v>
@@ -2967,7 +2973,7 @@
         <v>42</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -2976,7 +2982,7 @@
         <v>0.35</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -2984,31 +2990,25 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59" s="2">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -3016,31 +3016,25 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -3048,22 +3042,22 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -3072,7 +3066,7 @@
         <v>0.51</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
@@ -3080,59 +3074,71 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>43</v>
+      <c r="E62" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J62" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>43</v>
+      <c r="E63" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J63" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>42</v>
@@ -3141,7 +3147,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -3150,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J64" s="2">
         <v>2</v>
@@ -3158,25 +3164,25 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J65" s="2">
         <v>2</v>
@@ -3184,25 +3190,25 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J66" s="2">
         <v>2</v>
@@ -3210,7 +3216,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>43</v>
@@ -3219,7 +3225,7 @@
         <v>42</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -3228,7 +3234,7 @@
         <v>0.83</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J67" s="2">
         <v>2</v>
@@ -3236,7 +3242,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>43</v>
@@ -3245,16 +3251,16 @@
         <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
       </c>
       <c r="H68" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -3262,25 +3268,25 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
       <c r="H69" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J69" s="2">
         <v>2</v>
@@ -3288,16 +3294,16 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -3306,7 +3312,7 @@
         <v>0.61</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J70" s="2">
         <v>2</v>
@@ -3314,7 +3320,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>43</v>
@@ -3323,7 +3329,7 @@
         <v>44</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -3332,7 +3338,7 @@
         <v>0.61</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J71" s="2">
         <v>2</v>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>43</v>
@@ -3349,7 +3355,7 @@
         <v>44</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -3358,7 +3364,7 @@
         <v>0.61</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J72" s="2">
         <v>2</v>
@@ -3366,86 +3372,74 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J73" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74" s="2">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -3454,7 +3448,7 @@
         <v>0.8</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
@@ -3462,22 +3456,22 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -3486,7 +3480,7 @@
         <v>0.8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
@@ -3494,68 +3488,80 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J77" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J78" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -3564,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J79" s="2">
         <v>2</v>
@@ -3572,16 +3578,16 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2">
         <v>0</v>
@@ -3590,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J80" s="2">
         <v>2</v>
@@ -3598,16 +3604,16 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -3616,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J81" s="2">
         <v>2</v>
@@ -3624,25 +3630,25 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J82" s="2">
         <v>2</v>
@@ -3650,25 +3656,25 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
@@ -3676,7 +3682,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>44</v>
@@ -3685,7 +3691,7 @@
         <v>45</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -3694,7 +3700,7 @@
         <v>0.63</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
@@ -3702,7 +3708,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>44</v>
@@ -3711,7 +3717,7 @@
         <v>45</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -3720,7 +3726,7 @@
         <v>0.63</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J85" s="2">
         <v>2</v>
@@ -3728,7 +3734,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>44</v>
@@ -3737,7 +3743,7 @@
         <v>45</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -3746,7 +3752,7 @@
         <v>0.63</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J86" s="2">
         <v>2</v>
@@ -3754,77 +3760,65 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
       </c>
       <c r="H87" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
       <c r="H88" s="2">
-        <v>1.27</v>
+        <v>0.63</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J88" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>44</v>
@@ -3833,7 +3827,7 @@
         <v>46</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
@@ -3842,7 +3836,7 @@
         <v>1.27</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J89" s="2">
         <v>0</v>
@@ -3850,13 +3844,13 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>44</v>
@@ -3865,7 +3859,7 @@
         <v>46</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
@@ -3874,7 +3868,7 @@
         <v>1.27</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -3882,31 +3876,31 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" s="2">
-        <v>1</v>
-      </c>
-      <c r="H91" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -3914,31 +3908,31 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="2">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -3946,22 +3940,22 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
@@ -3970,7 +3964,7 @@
         <v>1.5</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -3978,31 +3972,31 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94" s="2">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -4010,31 +4004,31 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" s="2">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
@@ -4042,13 +4036,13 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>45</v>
@@ -4057,7 +4051,7 @@
         <v>46</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
@@ -4066,7 +4060,7 @@
         <v>0.36</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
@@ -4074,13 +4068,13 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>45</v>
@@ -4089,7 +4083,7 @@
         <v>46</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -4098,7 +4092,7 @@
         <v>0.36</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
@@ -4106,22 +4100,22 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -4130,7 +4124,7 @@
         <v>0.36</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -4138,22 +4132,22 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -4162,7 +4156,7 @@
         <v>0.36</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
@@ -4170,13 +4164,13 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>39</v>
@@ -4185,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -4194,7 +4188,7 @@
         <v>0.36</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J100" s="2">
         <v>0</v>
@@ -4202,13 +4196,13 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>39</v>
@@ -4217,7 +4211,7 @@
         <v>40</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -4226,7 +4220,7 @@
         <v>0.36</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -4234,31 +4228,31 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="2">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -4266,31 +4260,31 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
       </c>
       <c r="H103" s="2">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -4298,13 +4292,13 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>45</v>
@@ -4313,7 +4307,7 @@
         <v>46</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -4322,7 +4316,7 @@
         <v>0.7</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -4330,13 +4324,13 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>45</v>
@@ -4345,7 +4339,7 @@
         <v>46</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -4354,7 +4348,7 @@
         <v>0.7</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -4362,22 +4356,22 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -4386,7 +4380,7 @@
         <v>0.7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -4394,22 +4388,22 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -4418,7 +4412,7 @@
         <v>0.7</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -4426,13 +4420,13 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>39</v>
@@ -4441,7 +4435,7 @@
         <v>40</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -4450,7 +4444,7 @@
         <v>0.7</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -4458,13 +4452,13 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>39</v>
@@ -4473,7 +4467,7 @@
         <v>40</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -4482,7 +4476,7 @@
         <v>0.7</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -4490,31 +4484,31 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
       </c>
       <c r="H110" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -4522,31 +4516,31 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -4554,13 +4548,13 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>37</v>
@@ -4569,7 +4563,7 @@
         <v>40</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
@@ -4578,7 +4572,7 @@
         <v>1.27</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -4586,13 +4580,13 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>37</v>
@@ -4601,7 +4595,7 @@
         <v>40</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
@@ -4610,7 +4604,7 @@
         <v>1.27</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -4618,22 +4612,22 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G114" s="2">
         <v>1</v>
@@ -4642,7 +4636,7 @@
         <v>1.27</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -4650,22 +4644,22 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G115" s="2">
         <v>1</v>
@@ -4674,7 +4668,7 @@
         <v>1.27</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -4682,13 +4676,13 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>44</v>
@@ -4697,7 +4691,7 @@
         <v>46</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
@@ -4706,7 +4700,7 @@
         <v>1.27</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -4714,13 +4708,13 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>44</v>
@@ -4729,7 +4723,7 @@
         <v>46</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G117" s="2">
         <v>1</v>
@@ -4738,7 +4732,7 @@
         <v>1.27</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -4746,31 +4740,31 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" s="2">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -4778,31 +4772,31 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G119" s="2">
         <v>1</v>
       </c>
       <c r="H119" s="2">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -4810,22 +4804,22 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G120" s="2">
         <v>1</v>
@@ -4834,7 +4828,7 @@
         <v>0.1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -4842,22 +4836,22 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
@@ -4866,7 +4860,7 @@
         <v>0.1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -4874,22 +4868,22 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G122" s="2">
         <v>1</v>
@@ -4898,7 +4892,7 @@
         <v>0.1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -4906,22 +4900,22 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -4930,7 +4924,7 @@
         <v>0.1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -4938,22 +4932,22 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -4962,7 +4956,7 @@
         <v>0.1</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -4970,22 +4964,22 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -4994,7 +4988,7 @@
         <v>0.1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -5002,31 +4996,31 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="2">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" s="2">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -5034,31 +5028,31 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
       </c>
       <c r="H127" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -5066,22 +5060,22 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -5090,7 +5084,7 @@
         <v>0.6</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -5098,22 +5092,22 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -5122,7 +5116,7 @@
         <v>0.6</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -5130,22 +5124,22 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -5154,7 +5148,7 @@
         <v>0.6</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -5162,22 +5156,22 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G131" s="2">
         <v>1</v>
@@ -5186,7 +5180,7 @@
         <v>0.6</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -5194,22 +5188,22 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G132" s="2">
         <v>1</v>
@@ -5218,7 +5212,7 @@
         <v>0.6</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J132" s="2">
         <v>0</v>
@@ -5226,22 +5220,22 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G133" s="2">
         <v>1</v>
@@ -5250,7 +5244,7 @@
         <v>0.6</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J133" s="2">
         <v>0</v>
@@ -5258,31 +5252,31 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" s="2">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="J134" s="2">
         <v>0</v>
@@ -5290,31 +5284,31 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G135" s="2">
         <v>1</v>
       </c>
       <c r="H135" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J135" s="2">
         <v>0</v>
@@ -5322,31 +5316,31 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G136" s="2">
         <v>1</v>
       </c>
       <c r="H136" s="2">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J136" s="2">
         <v>0</v>
@@ -5354,22 +5348,22 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G137" s="2">
         <v>1</v>
@@ -5378,7 +5372,7 @@
         <v>0.2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J137" s="2">
         <v>0</v>
@@ -5386,22 +5380,22 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G138" s="2">
         <v>1</v>
@@ -5410,7 +5404,7 @@
         <v>0.2</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -5418,22 +5412,22 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G139" s="2">
         <v>1</v>
@@ -5442,7 +5436,7 @@
         <v>0.2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -5450,22 +5444,22 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
@@ -5474,7 +5468,7 @@
         <v>0.2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -5482,22 +5476,22 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G141" s="2">
         <v>1</v>
@@ -5506,7 +5500,7 @@
         <v>0.2</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J141" s="2">
         <v>0</v>
@@ -5514,22 +5508,22 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
@@ -5538,7 +5532,7 @@
         <v>0.2</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -5546,22 +5540,22 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G143" s="2">
         <v>1</v>
@@ -5570,7 +5564,7 @@
         <v>0.2</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -5578,22 +5572,22 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G144" s="2">
         <v>1</v>
@@ -5602,7 +5596,7 @@
         <v>0.2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
@@ -5610,13 +5604,13 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>39</v>
@@ -5625,7 +5619,7 @@
         <v>40</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G145" s="2">
         <v>1</v>
@@ -5634,7 +5628,7 @@
         <v>0.2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J145" s="2">
         <v>0</v>
@@ -5642,13 +5636,13 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>39</v>
@@ -5657,7 +5651,7 @@
         <v>40</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G146" s="2">
         <v>1</v>
@@ -5666,7 +5660,7 @@
         <v>0.2</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -5674,22 +5668,22 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G147" s="2">
         <v>1</v>
@@ -5698,7 +5692,7 @@
         <v>0.2</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J147" s="2">
         <v>0</v>
@@ -5706,22 +5700,22 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -5730,7 +5724,7 @@
         <v>0.2</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J148" s="2">
         <v>0</v>
@@ -5738,13 +5732,13 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>45</v>
@@ -5753,7 +5747,7 @@
         <v>46</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G149" s="2">
         <v>1</v>
@@ -5762,7 +5756,7 @@
         <v>0.2</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J149" s="2">
         <v>0</v>
@@ -5770,13 +5764,13 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>45</v>
@@ -5785,7 +5779,7 @@
         <v>46</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G150" s="2">
         <v>1</v>
@@ -5794,23 +5788,75 @@
         <v>0.2</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J150" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="7:10">
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-    </row>
-    <row r="152" spans="7:10">
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="7:10">
       <c r="G153" s="2"/>
@@ -9526,6 +9572,18 @@
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
     </row>
+    <row r="772" spans="7:10">
+      <c r="G772" s="2"/>
+      <c r="H772" s="2"/>
+      <c r="I772" s="2"/>
+      <c r="J772" s="2"/>
+    </row>
+    <row r="773" spans="7:10">
+      <c r="G773" s="2"/>
+      <c r="H773" s="2"/>
+      <c r="I773" s="2"/>
+      <c r="J773" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
